--- a/teaching/traditional_assets/database/data/south_africa/south_africa_recreation.xlsx
+++ b/teaching/traditional_assets/database/data/south_africa/south_africa_recreation.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="otcpk_leat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,28 +593,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09380000000000001</v>
+        <v>0.09390000000000001</v>
       </c>
       <c r="E2">
-        <v>0.0809</v>
+        <v>0.0892</v>
       </c>
       <c r="G2">
-        <v>0.1369811320754717</v>
+        <v>0.130722891566265</v>
       </c>
       <c r="H2">
-        <v>0.08339622641509434</v>
+        <v>0.08373493975903613</v>
       </c>
       <c r="I2">
-        <v>0.07037825645460083</v>
+        <v>0.1148177143130244</v>
       </c>
       <c r="J2">
-        <v>0.05505143616004331</v>
+        <v>0.08359367478178807</v>
       </c>
       <c r="K2">
-        <v>1.4</v>
+        <v>2.62</v>
       </c>
       <c r="L2">
-        <v>0.05283018867924528</v>
+        <v>0.0789156626506024</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,70 +638,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.91</v>
+        <v>2.87</v>
       </c>
       <c r="V2">
-        <v>0.1503937007874016</v>
+        <v>0.07192982456140351</v>
       </c>
       <c r="W2">
-        <v>0.1552106430155211</v>
+        <v>0.2471698113207547</v>
       </c>
       <c r="X2">
-        <v>0.08549573423306463</v>
+        <v>0.08164597906215632</v>
       </c>
       <c r="Y2">
-        <v>0.06971490878245644</v>
+        <v>0.1655238322585984</v>
       </c>
       <c r="Z2">
-        <v>3.3536318673635</v>
+        <v>3.479624494472605</v>
       </c>
       <c r="AA2">
-        <v>0.1846222506504485</v>
+        <v>0.2908745983536867</v>
       </c>
       <c r="AB2">
-        <v>0.08136317051605062</v>
+        <v>0.08077325488619423</v>
       </c>
       <c r="AC2">
-        <v>0.1032590801343979</v>
+        <v>0.2101013434674924</v>
       </c>
       <c r="AD2">
-        <v>0.793</v>
+        <v>0.383</v>
       </c>
       <c r="AE2">
-        <v>0.4948810197653895</v>
+        <v>0.425259424037941</v>
       </c>
       <c r="AF2">
-        <v>1.287881019765389</v>
+        <v>0.808259424037941</v>
       </c>
       <c r="AG2">
-        <v>-0.6221189802346105</v>
+        <v>-2.061740575962059</v>
       </c>
       <c r="AH2">
-        <v>0.09207120206023817</v>
+        <v>0.01985492466329006</v>
       </c>
       <c r="AI2">
-        <v>0.1083356249632793</v>
+        <v>0.05769877609854807</v>
       </c>
       <c r="AJ2">
-        <v>-0.05150895088439074</v>
+        <v>-0.05448825097520932</v>
       </c>
       <c r="AK2">
-        <v>-0.06234980944373282</v>
+        <v>-0.1851043773960347</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="AM2">
-        <v>-0.043</v>
+        <v>0.032</v>
       </c>
       <c r="AN2">
-        <v>0.2911160058737151</v>
+        <v>0.0817153829741839</v>
+      </c>
+      <c r="AO2">
+        <v>107.9411764705882</v>
       </c>
       <c r="AP2">
-        <v>-0.2283843539774635</v>
+        <v>-0.4398849105957027</v>
       </c>
       <c r="AQ2">
-        <v>-41.3953488372093</v>
+        <v>114.6875</v>
       </c>
     </row>
     <row r="3">
@@ -719,28 +724,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.09380000000000001</v>
+        <v>0.09390000000000001</v>
       </c>
       <c r="E3">
-        <v>0.0809</v>
+        <v>0.0892</v>
       </c>
       <c r="G3">
-        <v>0.1369811320754717</v>
+        <v>0.130722891566265</v>
       </c>
       <c r="H3">
-        <v>0.08339622641509434</v>
+        <v>0.08373493975903613</v>
       </c>
       <c r="I3">
-        <v>0.07037825645460083</v>
+        <v>0.1148177143130244</v>
       </c>
       <c r="J3">
-        <v>0.05505143616004331</v>
+        <v>0.08359367478178807</v>
       </c>
       <c r="K3">
-        <v>1.4</v>
+        <v>2.62</v>
       </c>
       <c r="L3">
-        <v>0.05283018867924528</v>
+        <v>0.0789156626506024</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,70 +769,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.91</v>
+        <v>2.87</v>
       </c>
       <c r="V3">
-        <v>0.1503937007874016</v>
+        <v>0.07192982456140351</v>
       </c>
       <c r="W3">
-        <v>0.1552106430155211</v>
+        <v>0.2471698113207547</v>
       </c>
       <c r="X3">
-        <v>0.08549573423306463</v>
+        <v>0.08164597906215632</v>
       </c>
       <c r="Y3">
-        <v>0.06971490878245644</v>
+        <v>0.1655238322585984</v>
       </c>
       <c r="Z3">
-        <v>3.3536318673635</v>
+        <v>3.479624494472605</v>
       </c>
       <c r="AA3">
-        <v>0.1846222506504485</v>
+        <v>0.2908745983536867</v>
       </c>
       <c r="AB3">
-        <v>0.08136317051605062</v>
+        <v>0.08077325488619423</v>
       </c>
       <c r="AC3">
-        <v>0.1032590801343979</v>
+        <v>0.2101013434674924</v>
       </c>
       <c r="AD3">
-        <v>0.793</v>
+        <v>0.383</v>
       </c>
       <c r="AE3">
-        <v>0.4948810197653895</v>
+        <v>0.425259424037941</v>
       </c>
       <c r="AF3">
-        <v>1.287881019765389</v>
+        <v>0.808259424037941</v>
       </c>
       <c r="AG3">
-        <v>-0.6221189802346105</v>
+        <v>-2.061740575962059</v>
       </c>
       <c r="AH3">
-        <v>0.09207120206023817</v>
+        <v>0.01985492466329006</v>
       </c>
       <c r="AI3">
-        <v>0.1083356249632793</v>
+        <v>0.05769877609854807</v>
       </c>
       <c r="AJ3">
-        <v>-0.05150895088439074</v>
+        <v>-0.05448825097520932</v>
       </c>
       <c r="AK3">
-        <v>-0.06234980944373282</v>
+        <v>-0.1851043773960347</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="AM3">
-        <v>-0.043</v>
+        <v>0.032</v>
       </c>
       <c r="AN3">
-        <v>0.2911160058737151</v>
+        <v>0.0817153829741839</v>
+      </c>
+      <c r="AO3">
+        <v>107.9411764705882</v>
       </c>
       <c r="AP3">
-        <v>-0.2283843539774635</v>
+        <v>-0.4398849105957027</v>
       </c>
       <c r="AQ3">
-        <v>-41.3953488372093</v>
+        <v>114.6875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Leatt Corporation (OTCPK:LEAT)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OTCPK:LEAT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0198549246632901</v>
+      </c>
+      <c r="F2">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G2">
+        <v>39.9</v>
+      </c>
+      <c r="H2">
+        <v>10.3706209872725</v>
+      </c>
+      <c r="I2">
+        <v>37.8382594240379</v>
+      </c>
+      <c r="J2">
+        <v>45.7663848458681</v>
+      </c>
+      <c r="K2">
+        <v>0.808259424037941</v>
+      </c>
+      <c r="L2">
+        <v>38.2657638585957</v>
+      </c>
+      <c r="M2">
+        <v>0.0807732548861942</v>
+      </c>
+      <c r="N2">
+        <v>0.0683919201805463</v>
+      </c>
+      <c r="O2">
+        <v>0.0376909305912009</v>
+      </c>
+      <c r="P2">
+        <v>0.016272</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0816459790621563</v>
+      </c>
+      <c r="T2">
+        <v>0.884937336342439</v>
+      </c>
+      <c r="U2">
+        <v>0.948238423768211</v>
+      </c>
+      <c r="V2">
+        <v>11.4769746483434</v>
+      </c>
+      <c r="W2">
+        <v>4.51083689605357</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>39.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.07629513553633499</v>
+      </c>
+      <c r="AC2">
+        <v>0.05234851471000126</v>
+      </c>
+      <c r="AD2">
+        <v>0.28</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>4.687</v>
+      </c>
+      <c r="AH2">
+        <v>0.786</v>
+      </c>
+      <c r="AI2">
+        <v>0.955</v>
+      </c>
+      <c r="AJ2">
+        <v>0.808259424037941</v>
+      </c>
+      <c r="AK2">
+        <v>0.3829999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.034</v>
+      </c>
+      <c r="AM2">
+        <v>0.383</v>
+      </c>
+      <c r="AN2">
+        <v>2.87</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.08060597201485657</v>
+      </c>
+      <c r="C2">
+        <v>40.79702748236485</v>
+      </c>
+      <c r="D2">
+        <v>37.92702748236486</v>
+      </c>
+      <c r="E2">
+        <v>-0.808259424037941</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.87</v>
+      </c>
+      <c r="H2">
+        <v>39.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>4.687</v>
+      </c>
+      <c r="K2">
+        <v>0.786</v>
+      </c>
+      <c r="L2">
+        <v>3.901</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>3.901</v>
+      </c>
+      <c r="O2">
+        <v>1.09228</v>
+      </c>
+      <c r="P2">
+        <v>2.80872</v>
+      </c>
+      <c r="Q2">
+        <v>3.59472</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.08060597201485657</v>
+      </c>
+      <c r="T2">
+        <v>0.9346070560540211</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.28</v>
+      </c>
+      <c r="W2">
+        <v>0.011664</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.08042995529321498</v>
+      </c>
+      <c r="C3">
+        <v>40.48379832879568</v>
+      </c>
+      <c r="D3">
+        <v>38.02088092303606</v>
+      </c>
+      <c r="E3">
+        <v>-0.4011768297975616</v>
+      </c>
+      <c r="F3">
+        <v>0.4070825942403794</v>
+      </c>
+      <c r="G3">
+        <v>2.87</v>
+      </c>
+      <c r="H3">
+        <v>39.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4.687</v>
+      </c>
+      <c r="K3">
+        <v>0.786</v>
+      </c>
+      <c r="L3">
+        <v>3.901</v>
+      </c>
+      <c r="M3">
+        <v>0.006594738026694146</v>
+      </c>
+      <c r="N3">
+        <v>3.894405261973306</v>
+      </c>
+      <c r="O3">
+        <v>1.090433473352526</v>
+      </c>
+      <c r="P3">
+        <v>2.80397178862078</v>
+      </c>
+      <c r="Q3">
+        <v>3.58997178862078</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.08112456090223735</v>
+      </c>
+      <c r="T3">
+        <v>0.9414041982798685</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.28</v>
+      </c>
+      <c r="W3">
+        <v>0.011664</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>591.5322161713707</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.08025393857157337</v>
+      </c>
+      <c r="C4">
+        <v>40.17103482308973</v>
+      </c>
+      <c r="D4">
+        <v>38.11520001157049</v>
+      </c>
+      <c r="E4">
+        <v>0.005905764442817762</v>
+      </c>
+      <c r="F4">
+        <v>0.8141651884807588</v>
+      </c>
+      <c r="G4">
+        <v>2.87</v>
+      </c>
+      <c r="H4">
+        <v>39.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>4.687</v>
+      </c>
+      <c r="K4">
+        <v>0.786</v>
+      </c>
+      <c r="L4">
+        <v>3.901</v>
+      </c>
+      <c r="M4">
+        <v>0.01318947605338829</v>
+      </c>
+      <c r="N4">
+        <v>3.887810523946612</v>
+      </c>
+      <c r="O4">
+        <v>1.088586946705052</v>
+      </c>
+      <c r="P4">
+        <v>2.79922357724156</v>
+      </c>
+      <c r="Q4">
+        <v>3.58522357724156</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.08165373323629936</v>
+      </c>
+      <c r="T4">
+        <v>0.9483400576939984</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.28</v>
+      </c>
+      <c r="W4">
+        <v>0.011664</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>295.7661080856853</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.08007792184993177</v>
+      </c>
+      <c r="C5">
+        <v>39.8587404392884</v>
+      </c>
+      <c r="D5">
+        <v>38.20998822200954</v>
+      </c>
+      <c r="E5">
+        <v>0.4129883586831971</v>
+      </c>
+      <c r="F5">
+        <v>1.221247782721138</v>
+      </c>
+      <c r="G5">
+        <v>2.87</v>
+      </c>
+      <c r="H5">
+        <v>39.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4.687</v>
+      </c>
+      <c r="K5">
+        <v>0.786</v>
+      </c>
+      <c r="L5">
+        <v>3.901</v>
+      </c>
+      <c r="M5">
+        <v>0.01978421408008244</v>
+      </c>
+      <c r="N5">
+        <v>3.881215785919918</v>
+      </c>
+      <c r="O5">
+        <v>1.086740420057577</v>
+      </c>
+      <c r="P5">
+        <v>2.794475365862341</v>
+      </c>
+      <c r="Q5">
+        <v>3.580475365862341</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.08219381634013585</v>
+      </c>
+      <c r="T5">
+        <v>0.9554189245187292</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.28</v>
+      </c>
+      <c r="W5">
+        <v>0.011664</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>197.1774053904569</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07990190512829019</v>
+      </c>
+      <c r="C6">
+        <v>39.54691868607746</v>
+      </c>
+      <c r="D6">
+        <v>38.30524906303898</v>
+      </c>
+      <c r="E6">
+        <v>0.8200709529235766</v>
+      </c>
+      <c r="F6">
+        <v>1.628330376961518</v>
+      </c>
+      <c r="G6">
+        <v>2.87</v>
+      </c>
+      <c r="H6">
+        <v>39.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4.687</v>
+      </c>
+      <c r="K6">
+        <v>0.786</v>
+      </c>
+      <c r="L6">
+        <v>3.901</v>
+      </c>
+      <c r="M6">
+        <v>0.02637895210677658</v>
+      </c>
+      <c r="N6">
+        <v>3.874621047893223</v>
+      </c>
+      <c r="O6">
+        <v>1.084893893410103</v>
+      </c>
+      <c r="P6">
+        <v>2.789727154483121</v>
+      </c>
+      <c r="Q6">
+        <v>3.575727154483121</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.08274515117530228</v>
+      </c>
+      <c r="T6">
+        <v>0.9626452677356417</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.28</v>
+      </c>
+      <c r="W6">
+        <v>0.011664</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>147.8830540428427</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07972588840664857</v>
+      </c>
+      <c r="C7">
+        <v>39.23557310721998</v>
+      </c>
+      <c r="D7">
+        <v>38.40098607842189</v>
+      </c>
+      <c r="E7">
+        <v>1.227153547163956</v>
+      </c>
+      <c r="F7">
+        <v>2.035412971201897</v>
+      </c>
+      <c r="G7">
+        <v>2.87</v>
+      </c>
+      <c r="H7">
+        <v>39.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4.687</v>
+      </c>
+      <c r="K7">
+        <v>0.786</v>
+      </c>
+      <c r="L7">
+        <v>3.901</v>
+      </c>
+      <c r="M7">
+        <v>0.03297369013347073</v>
+      </c>
+      <c r="N7">
+        <v>3.868026309866529</v>
+      </c>
+      <c r="O7">
+        <v>1.083047366762628</v>
+      </c>
+      <c r="P7">
+        <v>2.784978943103901</v>
+      </c>
+      <c r="Q7">
+        <v>3.570978943103901</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.08330809305963008</v>
+      </c>
+      <c r="T7">
+        <v>0.9700237444939629</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.28</v>
+      </c>
+      <c r="W7">
+        <v>0.011664</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>118.3064432342741</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07954987168500698</v>
+      </c>
+      <c r="C8">
+        <v>38.92470728199572</v>
+      </c>
+      <c r="D8">
+        <v>38.497202847438</v>
+      </c>
+      <c r="E8">
+        <v>1.634236141404335</v>
+      </c>
+      <c r="F8">
+        <v>2.442495565442276</v>
+      </c>
+      <c r="G8">
+        <v>2.87</v>
+      </c>
+      <c r="H8">
+        <v>39.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4.687</v>
+      </c>
+      <c r="K8">
+        <v>0.786</v>
+      </c>
+      <c r="L8">
+        <v>3.901</v>
+      </c>
+      <c r="M8">
+        <v>0.03956842816016487</v>
+      </c>
+      <c r="N8">
+        <v>3.861431571839836</v>
+      </c>
+      <c r="O8">
+        <v>1.081200840115154</v>
+      </c>
+      <c r="P8">
+        <v>2.780230731724681</v>
+      </c>
+      <c r="Q8">
+        <v>3.566230731724681</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.08388301243085849</v>
+      </c>
+      <c r="T8">
+        <v>0.9775592101194824</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.28</v>
+      </c>
+      <c r="W8">
+        <v>0.011664</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>98.58870269522846</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07937385496336537</v>
+      </c>
+      <c r="C9">
+        <v>38.6143248256473</v>
+      </c>
+      <c r="D9">
+        <v>38.59390298532996</v>
+      </c>
+      <c r="E9">
+        <v>2.041318735644715</v>
+      </c>
+      <c r="F9">
+        <v>2.849578159682656</v>
+      </c>
+      <c r="G9">
+        <v>2.87</v>
+      </c>
+      <c r="H9">
+        <v>39.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4.687</v>
+      </c>
+      <c r="K9">
+        <v>0.786</v>
+      </c>
+      <c r="L9">
+        <v>3.901</v>
+      </c>
+      <c r="M9">
+        <v>0.04616316618685903</v>
+      </c>
+      <c r="N9">
+        <v>3.854836833813141</v>
+      </c>
+      <c r="O9">
+        <v>1.07935431346768</v>
+      </c>
+      <c r="P9">
+        <v>2.775482520345462</v>
+      </c>
+      <c r="Q9">
+        <v>3.561482520345462</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.08447029565953267</v>
+      </c>
+      <c r="T9">
+        <v>0.9852567287692067</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.28</v>
+      </c>
+      <c r="W9">
+        <v>0.011664</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>84.50460231019581</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07919783824172377</v>
+      </c>
+      <c r="C10">
+        <v>38.30442938983289</v>
+      </c>
+      <c r="D10">
+        <v>38.69109014375593</v>
+      </c>
+      <c r="E10">
+        <v>2.448401329885094</v>
+      </c>
+      <c r="F10">
+        <v>3.256660753923035</v>
+      </c>
+      <c r="G10">
+        <v>2.87</v>
+      </c>
+      <c r="H10">
+        <v>39.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4.687</v>
+      </c>
+      <c r="K10">
+        <v>0.786</v>
+      </c>
+      <c r="L10">
+        <v>3.901</v>
+      </c>
+      <c r="M10">
+        <v>0.05275790421355317</v>
+      </c>
+      <c r="N10">
+        <v>3.848242095786447</v>
+      </c>
+      <c r="O10">
+        <v>1.077507786820205</v>
+      </c>
+      <c r="P10">
+        <v>2.770734308966242</v>
+      </c>
+      <c r="Q10">
+        <v>3.556734308966242</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.08507034591491715</v>
+      </c>
+      <c r="T10">
+        <v>0.9931215847808814</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.28</v>
+      </c>
+      <c r="W10">
+        <v>0.011664</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>73.94152702142134</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07902182152008221</v>
+      </c>
+      <c r="C11">
+        <v>37.99502466308599</v>
+      </c>
+      <c r="D11">
+        <v>38.7887680112494</v>
+      </c>
+      <c r="E11">
+        <v>2.855483924125473</v>
+      </c>
+      <c r="F11">
+        <v>3.663743348163415</v>
+      </c>
+      <c r="G11">
+        <v>2.87</v>
+      </c>
+      <c r="H11">
+        <v>39.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>4.687</v>
+      </c>
+      <c r="K11">
+        <v>0.786</v>
+      </c>
+      <c r="L11">
+        <v>3.901</v>
+      </c>
+      <c r="M11">
+        <v>0.05935264224024731</v>
+      </c>
+      <c r="N11">
+        <v>3.841647357759753</v>
+      </c>
+      <c r="O11">
+        <v>1.075661260172731</v>
+      </c>
+      <c r="P11">
+        <v>2.765986097587022</v>
+      </c>
+      <c r="Q11">
+        <v>3.551986097587022</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.08568358408800242</v>
+      </c>
+      <c r="T11">
+        <v>1.001159294770835</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.28</v>
+      </c>
+      <c r="W11">
+        <v>0.011664</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>65.72580179681897</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.0788458047984406</v>
+      </c>
+      <c r="C12">
+        <v>37.68611437128203</v>
+      </c>
+      <c r="D12">
+        <v>38.88694031368583</v>
+      </c>
+      <c r="E12">
+        <v>3.262566518365853</v>
+      </c>
+      <c r="F12">
+        <v>4.070825942403794</v>
+      </c>
+      <c r="G12">
+        <v>2.87</v>
+      </c>
+      <c r="H12">
+        <v>39.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4.687</v>
+      </c>
+      <c r="K12">
+        <v>0.786</v>
+      </c>
+      <c r="L12">
+        <v>3.901</v>
+      </c>
+      <c r="M12">
+        <v>0.06594738026694147</v>
+      </c>
+      <c r="N12">
+        <v>3.835052619733059</v>
+      </c>
+      <c r="O12">
+        <v>1.073814733525257</v>
+      </c>
+      <c r="P12">
+        <v>2.761237886207802</v>
+      </c>
+      <c r="Q12">
+        <v>3.547237886207802</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.0863104497760451</v>
+      </c>
+      <c r="T12">
+        <v>1.009375620538343</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.28</v>
+      </c>
+      <c r="W12">
+        <v>0.011664</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>59.15322161713706</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07866978807679899</v>
+      </c>
+      <c r="C13">
+        <v>37.37770227811209</v>
+      </c>
+      <c r="D13">
+        <v>38.98561081475626</v>
+      </c>
+      <c r="E13">
+        <v>3.669649112606232</v>
+      </c>
+      <c r="F13">
+        <v>4.477908536644174</v>
+      </c>
+      <c r="G13">
+        <v>2.87</v>
+      </c>
+      <c r="H13">
+        <v>39.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4.687</v>
+      </c>
+      <c r="K13">
+        <v>0.786</v>
+      </c>
+      <c r="L13">
+        <v>3.901</v>
+      </c>
+      <c r="M13">
+        <v>0.0725421182936356</v>
+      </c>
+      <c r="N13">
+        <v>3.828457881706365</v>
+      </c>
+      <c r="O13">
+        <v>1.071968206877782</v>
+      </c>
+      <c r="P13">
+        <v>2.756489674828583</v>
+      </c>
+      <c r="Q13">
+        <v>3.542489674828583</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.086951402333482</v>
+      </c>
+      <c r="T13">
+        <v>1.017776582839952</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.28</v>
+      </c>
+      <c r="W13">
+        <v>0.011664</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>53.77565601557915</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07849377135515739</v>
+      </c>
+      <c r="C14">
+        <v>37.06979218556391</v>
+      </c>
+      <c r="D14">
+        <v>39.08478331644846</v>
+      </c>
+      <c r="E14">
+        <v>4.076731706846611</v>
+      </c>
+      <c r="F14">
+        <v>4.884991130884552</v>
+      </c>
+      <c r="G14">
+        <v>2.87</v>
+      </c>
+      <c r="H14">
+        <v>39.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4.687</v>
+      </c>
+      <c r="K14">
+        <v>0.786</v>
+      </c>
+      <c r="L14">
+        <v>3.901</v>
+      </c>
+      <c r="M14">
+        <v>0.07913685632032974</v>
+      </c>
+      <c r="N14">
+        <v>3.82186314367967</v>
+      </c>
+      <c r="O14">
+        <v>1.070121680230308</v>
+      </c>
+      <c r="P14">
+        <v>2.751741463449362</v>
+      </c>
+      <c r="Q14">
+        <v>3.537741463449362</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.08760692199449703</v>
+      </c>
+      <c r="T14">
+        <v>1.026368476102961</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.28</v>
+      </c>
+      <c r="W14">
+        <v>0.011664</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>49.29435134761423</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07831775463351578</v>
+      </c>
+      <c r="C15">
+        <v>36.76238793441023</v>
+      </c>
+      <c r="D15">
+        <v>39.18446165953517</v>
+      </c>
+      <c r="E15">
+        <v>4.483814301086992</v>
+      </c>
+      <c r="F15">
+        <v>5.292073725124933</v>
+      </c>
+      <c r="G15">
+        <v>2.87</v>
+      </c>
+      <c r="H15">
+        <v>39.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4.687</v>
+      </c>
+      <c r="K15">
+        <v>0.786</v>
+      </c>
+      <c r="L15">
+        <v>3.901</v>
+      </c>
+      <c r="M15">
+        <v>0.0857315943470239</v>
+      </c>
+      <c r="N15">
+        <v>3.815268405652976</v>
+      </c>
+      <c r="O15">
+        <v>1.068275153582833</v>
+      </c>
+      <c r="P15">
+        <v>2.746993252070143</v>
+      </c>
+      <c r="Q15">
+        <v>3.532993252070143</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.08827751107300665</v>
+      </c>
+      <c r="T15">
+        <v>1.035157884153626</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.28</v>
+      </c>
+      <c r="W15">
+        <v>0.011664</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>45.50247816702851</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07814173791187419</v>
+      </c>
+      <c r="C16">
+        <v>36.45549340470464</v>
+      </c>
+      <c r="D16">
+        <v>39.28464972406996</v>
+      </c>
+      <c r="E16">
+        <v>4.890896895327371</v>
+      </c>
+      <c r="F16">
+        <v>5.699156319365312</v>
+      </c>
+      <c r="G16">
+        <v>2.87</v>
+      </c>
+      <c r="H16">
+        <v>39.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4.687</v>
+      </c>
+      <c r="K16">
+        <v>0.786</v>
+      </c>
+      <c r="L16">
+        <v>3.901</v>
+      </c>
+      <c r="M16">
+        <v>0.09232633237371805</v>
+      </c>
+      <c r="N16">
+        <v>3.808673667626282</v>
+      </c>
+      <c r="O16">
+        <v>1.066428626935359</v>
+      </c>
+      <c r="P16">
+        <v>2.742245040690923</v>
+      </c>
+      <c r="Q16">
+        <v>3.528245040690923</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.08896369524636534</v>
+      </c>
+      <c r="T16">
+        <v>1.044151697042678</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.28</v>
+      </c>
+      <c r="W16">
+        <v>0.011664</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>42.2523011550979</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.0779657211902326</v>
+      </c>
+      <c r="C17">
+        <v>36.14911251628502</v>
+      </c>
+      <c r="D17">
+        <v>39.38535142989072</v>
+      </c>
+      <c r="E17">
+        <v>5.29797948956775</v>
+      </c>
+      <c r="F17">
+        <v>6.106238913605691</v>
+      </c>
+      <c r="G17">
+        <v>2.87</v>
+      </c>
+      <c r="H17">
+        <v>39.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4.687</v>
+      </c>
+      <c r="K17">
+        <v>0.786</v>
+      </c>
+      <c r="L17">
+        <v>3.901</v>
+      </c>
+      <c r="M17">
+        <v>0.09892107040041219</v>
+      </c>
+      <c r="N17">
+        <v>3.802078929599588</v>
+      </c>
+      <c r="O17">
+        <v>1.064582100287885</v>
+      </c>
+      <c r="P17">
+        <v>2.737496829311703</v>
+      </c>
+      <c r="Q17">
+        <v>3.523496829311703</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.08966602492968541</v>
+      </c>
+      <c r="T17">
+        <v>1.053357129058532</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.28</v>
+      </c>
+      <c r="W17">
+        <v>0.011664</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>39.43548107809139</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.077789704468591</v>
+      </c>
+      <c r="C18">
+        <v>35.84324922928477</v>
+      </c>
+      <c r="D18">
+        <v>39.48657073713084</v>
+      </c>
+      <c r="E18">
+        <v>5.705062083808129</v>
+      </c>
+      <c r="F18">
+        <v>6.51332150784607</v>
+      </c>
+      <c r="G18">
+        <v>2.87</v>
+      </c>
+      <c r="H18">
+        <v>39.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4.687</v>
+      </c>
+      <c r="K18">
+        <v>0.786</v>
+      </c>
+      <c r="L18">
+        <v>3.901</v>
+      </c>
+      <c r="M18">
+        <v>0.1055158084271063</v>
+      </c>
+      <c r="N18">
+        <v>3.795484191572894</v>
+      </c>
+      <c r="O18">
+        <v>1.06273557364041</v>
+      </c>
+      <c r="P18">
+        <v>2.732748617932484</v>
+      </c>
+      <c r="Q18">
+        <v>3.518748617932484</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.09038507674832262</v>
+      </c>
+      <c r="T18">
+        <v>1.062781738027144</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.28</v>
+      </c>
+      <c r="W18">
+        <v>0.011664</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>36.97076351071067</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07761368774694939</v>
+      </c>
+      <c r="C19">
+        <v>35.53790754465192</v>
+      </c>
+      <c r="D19">
+        <v>39.58831164673837</v>
+      </c>
+      <c r="E19">
+        <v>6.11214467804851</v>
+      </c>
+      <c r="F19">
+        <v>6.920404102086451</v>
+      </c>
+      <c r="G19">
+        <v>2.87</v>
+      </c>
+      <c r="H19">
+        <v>39.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4.687</v>
+      </c>
+      <c r="K19">
+        <v>0.786</v>
+      </c>
+      <c r="L19">
+        <v>3.901</v>
+      </c>
+      <c r="M19">
+        <v>0.1121105464538005</v>
+      </c>
+      <c r="N19">
+        <v>3.7888894535462</v>
+      </c>
+      <c r="O19">
+        <v>1.060889046992936</v>
+      </c>
+      <c r="P19">
+        <v>2.728000406553264</v>
+      </c>
+      <c r="Q19">
+        <v>3.514000406553264</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.0911214551168065</v>
+      </c>
+      <c r="T19">
+        <v>1.072433446007048</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.28</v>
+      </c>
+      <c r="W19">
+        <v>0.011664</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>34.79601271596298</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07743767102530778</v>
+      </c>
+      <c r="C20">
+        <v>35.23309150467632</v>
+      </c>
+      <c r="D20">
+        <v>39.69057820100315</v>
+      </c>
+      <c r="E20">
+        <v>6.519227272288888</v>
+      </c>
+      <c r="F20">
+        <v>7.327486696326829</v>
+      </c>
+      <c r="G20">
+        <v>2.87</v>
+      </c>
+      <c r="H20">
+        <v>39.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>4.687</v>
+      </c>
+      <c r="K20">
+        <v>0.786</v>
+      </c>
+      <c r="L20">
+        <v>3.901</v>
+      </c>
+      <c r="M20">
+        <v>0.1187052844804946</v>
+      </c>
+      <c r="N20">
+        <v>3.782294715519506</v>
+      </c>
+      <c r="O20">
+        <v>1.059042520345462</v>
+      </c>
+      <c r="P20">
+        <v>2.723252195174044</v>
+      </c>
+      <c r="Q20">
+        <v>3.509252195174044</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.09187579393330218</v>
+      </c>
+      <c r="T20">
+        <v>1.082320561498656</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.28</v>
+      </c>
+      <c r="W20">
+        <v>0.011664</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>32.86290089840949</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.0772616543036662</v>
+      </c>
+      <c r="C21">
+        <v>34.92880519352498</v>
+      </c>
+      <c r="D21">
+        <v>39.79337448409219</v>
+      </c>
+      <c r="E21">
+        <v>6.926309866529268</v>
+      </c>
+      <c r="F21">
+        <v>7.734569290567209</v>
+      </c>
+      <c r="G21">
+        <v>2.87</v>
+      </c>
+      <c r="H21">
+        <v>39.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>4.687</v>
+      </c>
+      <c r="K21">
+        <v>0.786</v>
+      </c>
+      <c r="L21">
+        <v>3.901</v>
+      </c>
+      <c r="M21">
+        <v>0.1253000225071888</v>
+      </c>
+      <c r="N21">
+        <v>3.775699977492811</v>
+      </c>
+      <c r="O21">
+        <v>1.057195993697987</v>
+      </c>
+      <c r="P21">
+        <v>2.718503983794824</v>
+      </c>
+      <c r="Q21">
+        <v>3.504503983794824</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.0926487583995879</v>
+      </c>
+      <c r="T21">
+        <v>1.0924518032987</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.28</v>
+      </c>
+      <c r="W21">
+        <v>0.011664</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>31.1332745353353</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.07708563758202459</v>
+      </c>
+      <c r="C22">
+        <v>34.62505273778586</v>
+      </c>
+      <c r="D22">
+        <v>39.89670462259345</v>
+      </c>
+      <c r="E22">
+        <v>7.333392460769647</v>
+      </c>
+      <c r="F22">
+        <v>8.141651884807589</v>
+      </c>
+      <c r="G22">
+        <v>2.87</v>
+      </c>
+      <c r="H22">
+        <v>39.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>4.687</v>
+      </c>
+      <c r="K22">
+        <v>0.786</v>
+      </c>
+      <c r="L22">
+        <v>3.901</v>
+      </c>
+      <c r="M22">
+        <v>0.1318947605338829</v>
+      </c>
+      <c r="N22">
+        <v>3.769105239466117</v>
+      </c>
+      <c r="O22">
+        <v>1.055349467050513</v>
+      </c>
+      <c r="P22">
+        <v>2.713755772415604</v>
+      </c>
+      <c r="Q22">
+        <v>3.499755772415604</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.09344104697753075</v>
+      </c>
+      <c r="T22">
+        <v>1.102836326143745</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.28</v>
+      </c>
+      <c r="W22">
+        <v>0.011664</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>29.57661080856853</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.076909620860383</v>
+      </c>
+      <c r="C23">
+        <v>34.32183830701993</v>
+      </c>
+      <c r="D23">
+        <v>40.0005727860679</v>
+      </c>
+      <c r="E23">
+        <v>7.740475055010026</v>
+      </c>
+      <c r="F23">
+        <v>8.548734479047967</v>
+      </c>
+      <c r="G23">
+        <v>2.87</v>
+      </c>
+      <c r="H23">
+        <v>39.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>4.687</v>
+      </c>
+      <c r="K23">
+        <v>0.786</v>
+      </c>
+      <c r="L23">
+        <v>3.901</v>
+      </c>
+      <c r="M23">
+        <v>0.1384894985605771</v>
+      </c>
+      <c r="N23">
+        <v>3.762510501439423</v>
+      </c>
+      <c r="O23">
+        <v>1.053502940403038</v>
+      </c>
+      <c r="P23">
+        <v>2.709007561036385</v>
+      </c>
+      <c r="Q23">
+        <v>3.495007561036385</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.09425339349415569</v>
+      </c>
+      <c r="T23">
+        <v>1.113483748301322</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.28</v>
+      </c>
+      <c r="W23">
+        <v>0.011664</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>28.16820077006527</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.07673360413874142</v>
+      </c>
+      <c r="C24">
+        <v>34.01916611432213</v>
+      </c>
+      <c r="D24">
+        <v>40.10498318761048</v>
+      </c>
+      <c r="E24">
+        <v>8.147557649250407</v>
+      </c>
+      <c r="F24">
+        <v>8.955817073288348</v>
+      </c>
+      <c r="G24">
+        <v>2.87</v>
+      </c>
+      <c r="H24">
+        <v>39.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>4.687</v>
+      </c>
+      <c r="K24">
+        <v>0.786</v>
+      </c>
+      <c r="L24">
+        <v>3.901</v>
+      </c>
+      <c r="M24">
+        <v>0.1450842365872712</v>
+      </c>
+      <c r="N24">
+        <v>3.755915763412729</v>
+      </c>
+      <c r="O24">
+        <v>1.051656413755564</v>
+      </c>
+      <c r="P24">
+        <v>2.704259349657165</v>
+      </c>
+      <c r="Q24">
+        <v>3.490259349657165</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.09508656940864284</v>
+      </c>
+      <c r="T24">
+        <v>1.124404181283453</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.28</v>
+      </c>
+      <c r="W24">
+        <v>0.011664</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>26.88782800778958</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.07655758741709981</v>
+      </c>
+      <c r="C25">
+        <v>33.717040416891</v>
+      </c>
+      <c r="D25">
+        <v>40.20994008441972</v>
+      </c>
+      <c r="E25">
+        <v>8.554640243490786</v>
+      </c>
+      <c r="F25">
+        <v>9.362899667528726</v>
+      </c>
+      <c r="G25">
+        <v>2.87</v>
+      </c>
+      <c r="H25">
+        <v>39.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4.687</v>
+      </c>
+      <c r="K25">
+        <v>0.786</v>
+      </c>
+      <c r="L25">
+        <v>3.901</v>
+      </c>
+      <c r="M25">
+        <v>0.1516789746139653</v>
+      </c>
+      <c r="N25">
+        <v>3.749321025386035</v>
+      </c>
+      <c r="O25">
+        <v>1.04980988710809</v>
+      </c>
+      <c r="P25">
+        <v>2.699511138277945</v>
+      </c>
+      <c r="Q25">
+        <v>3.485511138277945</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.09594138625597377</v>
+      </c>
+      <c r="T25">
+        <v>1.135608261875509</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.28</v>
+      </c>
+      <c r="W25">
+        <v>0.011664</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>25.7187920074509</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.07638157069545821</v>
+      </c>
+      <c r="C26">
+        <v>33.41546551660721</v>
+      </c>
+      <c r="D26">
+        <v>40.31544777837632</v>
+      </c>
+      <c r="E26">
+        <v>8.961722837731164</v>
+      </c>
+      <c r="F26">
+        <v>9.769982261769105</v>
+      </c>
+      <c r="G26">
+        <v>2.87</v>
+      </c>
+      <c r="H26">
+        <v>39.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4.687</v>
+      </c>
+      <c r="K26">
+        <v>0.786</v>
+      </c>
+      <c r="L26">
+        <v>3.901</v>
+      </c>
+      <c r="M26">
+        <v>0.1582737126406595</v>
+      </c>
+      <c r="N26">
+        <v>3.742726287359341</v>
+      </c>
+      <c r="O26">
+        <v>1.047963360460616</v>
+      </c>
+      <c r="P26">
+        <v>2.694762926898726</v>
+      </c>
+      <c r="Q26">
+        <v>3.480762926898726</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.09681869828349765</v>
+      </c>
+      <c r="T26">
+        <v>1.147107186693672</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.28</v>
+      </c>
+      <c r="W26">
+        <v>0.011664</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>24.64717567380712</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.07620555397381662</v>
+      </c>
+      <c r="C27">
+        <v>33.11444576062148</v>
+      </c>
+      <c r="D27">
+        <v>40.42151061663097</v>
+      </c>
+      <c r="E27">
+        <v>9.368805431971545</v>
+      </c>
+      <c r="F27">
+        <v>10.17706485600949</v>
+      </c>
+      <c r="G27">
+        <v>2.87</v>
+      </c>
+      <c r="H27">
+        <v>39.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>4.687</v>
+      </c>
+      <c r="K27">
+        <v>0.786</v>
+      </c>
+      <c r="L27">
+        <v>3.901</v>
+      </c>
+      <c r="M27">
+        <v>0.1648684506673536</v>
+      </c>
+      <c r="N27">
+        <v>3.736131549332647</v>
+      </c>
+      <c r="O27">
+        <v>1.046116833813141</v>
+      </c>
+      <c r="P27">
+        <v>2.690014715519506</v>
+      </c>
+      <c r="Q27">
+        <v>3.476014715519506</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.09771940529842216</v>
+      </c>
+      <c r="T27">
+        <v>1.158912749506986</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.28</v>
+      </c>
+      <c r="W27">
+        <v>0.011664</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>23.66128864685483</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.07602953725217503</v>
+      </c>
+      <c r="C28">
+        <v>32.8139855419515</v>
+      </c>
+      <c r="D28">
+        <v>40.52813299220137</v>
+      </c>
+      <c r="E28">
+        <v>9.775888026211925</v>
+      </c>
+      <c r="F28">
+        <v>10.58414745024987</v>
+      </c>
+      <c r="G28">
+        <v>2.87</v>
+      </c>
+      <c r="H28">
+        <v>39.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>4.687</v>
+      </c>
+      <c r="K28">
+        <v>0.786</v>
+      </c>
+      <c r="L28">
+        <v>3.901</v>
+      </c>
+      <c r="M28">
+        <v>0.1714631886940478</v>
+      </c>
+      <c r="N28">
+        <v>3.729536811305953</v>
+      </c>
+      <c r="O28">
+        <v>1.044270307165667</v>
+      </c>
+      <c r="P28">
+        <v>2.685266504140285</v>
+      </c>
+      <c r="Q28">
+        <v>3.471266504140285</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.09864445574618246</v>
+      </c>
+      <c r="T28">
+        <v>1.171037381585525</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.28</v>
+      </c>
+      <c r="W28">
+        <v>0.011664</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>22.75123908351426</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.07585352053053342</v>
+      </c>
+      <c r="C29">
+        <v>32.51408930008852</v>
+      </c>
+      <c r="D29">
+        <v>40.63531934457877</v>
+      </c>
+      <c r="E29">
+        <v>10.1829706204523</v>
+      </c>
+      <c r="F29">
+        <v>10.99123004449024</v>
+      </c>
+      <c r="G29">
+        <v>2.87</v>
+      </c>
+      <c r="H29">
+        <v>39.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>4.687</v>
+      </c>
+      <c r="K29">
+        <v>0.786</v>
+      </c>
+      <c r="L29">
+        <v>3.901</v>
+      </c>
+      <c r="M29">
+        <v>0.1780579267207419</v>
+      </c>
+      <c r="N29">
+        <v>3.722942073279258</v>
+      </c>
+      <c r="O29">
+        <v>1.042423780518192</v>
+      </c>
+      <c r="P29">
+        <v>2.680518292761066</v>
+      </c>
+      <c r="Q29">
+        <v>3.466518292761066</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.0995948500418266</v>
+      </c>
+      <c r="T29">
+        <v>1.183494195364845</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.28</v>
+      </c>
+      <c r="W29">
+        <v>0.011664</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>21.90860059893966</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.07567750380889182</v>
+      </c>
+      <c r="C30">
+        <v>32.21476152161352</v>
+      </c>
+      <c r="D30">
+        <v>40.74307416034414</v>
+      </c>
+      <c r="E30">
+        <v>10.59005321469268</v>
+      </c>
+      <c r="F30">
+        <v>11.39831263873062</v>
+      </c>
+      <c r="G30">
+        <v>2.87</v>
+      </c>
+      <c r="H30">
+        <v>39.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>4.687</v>
+      </c>
+      <c r="K30">
+        <v>0.786</v>
+      </c>
+      <c r="L30">
+        <v>3.901</v>
+      </c>
+      <c r="M30">
+        <v>0.1846526647474361</v>
+      </c>
+      <c r="N30">
+        <v>3.716347335252564</v>
+      </c>
+      <c r="O30">
+        <v>1.040577253870718</v>
+      </c>
+      <c r="P30">
+        <v>2.675770081381846</v>
+      </c>
+      <c r="Q30">
+        <v>3.461770081381846</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1005716441790164</v>
+      </c>
+      <c r="T30">
+        <v>1.196297031749147</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.28</v>
+      </c>
+      <c r="W30">
+        <v>0.011664</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>21.12615057754895</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.07550148708725021</v>
+      </c>
+      <c r="C31">
+        <v>31.9160067408232</v>
+      </c>
+      <c r="D31">
+        <v>40.8514019737942</v>
+      </c>
+      <c r="E31">
+        <v>10.99713580893306</v>
+      </c>
+      <c r="F31">
+        <v>11.805395232971</v>
+      </c>
+      <c r="G31">
+        <v>2.87</v>
+      </c>
+      <c r="H31">
+        <v>39.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>4.687</v>
+      </c>
+      <c r="K31">
+        <v>0.786</v>
+      </c>
+      <c r="L31">
+        <v>3.901</v>
+      </c>
+      <c r="M31">
+        <v>0.1912474027741302</v>
+      </c>
+      <c r="N31">
+        <v>3.70975259722587</v>
+      </c>
+      <c r="O31">
+        <v>1.038730727223244</v>
+      </c>
+      <c r="P31">
+        <v>2.671021870002626</v>
+      </c>
+      <c r="Q31">
+        <v>3.457021870002626</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1015759536440144</v>
+      </c>
+      <c r="T31">
+        <v>1.20946051141188</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.28</v>
+      </c>
+      <c r="W31">
+        <v>0.011664</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>20.39766262659899</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.07532547036560862</v>
+      </c>
+      <c r="C32">
+        <v>31.61782954036606</v>
+      </c>
+      <c r="D32">
+        <v>40.96030736757744</v>
+      </c>
+      <c r="E32">
+        <v>11.40421840317344</v>
+      </c>
+      <c r="F32">
+        <v>12.21247782721138</v>
+      </c>
+      <c r="G32">
+        <v>2.87</v>
+      </c>
+      <c r="H32">
+        <v>39.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>4.687</v>
+      </c>
+      <c r="K32">
+        <v>0.786</v>
+      </c>
+      <c r="L32">
+        <v>3.901</v>
+      </c>
+      <c r="M32">
+        <v>0.1978421408008244</v>
+      </c>
+      <c r="N32">
+        <v>3.703157859199176</v>
+      </c>
+      <c r="O32">
+        <v>1.036884200575769</v>
+      </c>
+      <c r="P32">
+        <v>2.666273658623407</v>
+      </c>
+      <c r="Q32">
+        <v>3.452273658623407</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1026089576651552</v>
+      </c>
+      <c r="T32">
+        <v>1.223000090493548</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.28</v>
+      </c>
+      <c r="W32">
+        <v>0.011664</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>19.71774053904569</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.075149453643967</v>
+      </c>
+      <c r="C33">
+        <v>31.3202345518886</v>
+      </c>
+      <c r="D33">
+        <v>41.06979497334036</v>
+      </c>
+      <c r="E33">
+        <v>11.81130099741382</v>
+      </c>
+      <c r="F33">
+        <v>12.61956042145176</v>
+      </c>
+      <c r="G33">
+        <v>2.87</v>
+      </c>
+      <c r="H33">
+        <v>39.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>4.687</v>
+      </c>
+      <c r="K33">
+        <v>0.786</v>
+      </c>
+      <c r="L33">
+        <v>3.901</v>
+      </c>
+      <c r="M33">
+        <v>0.2044368788275185</v>
+      </c>
+      <c r="N33">
+        <v>3.696563121172482</v>
+      </c>
+      <c r="O33">
+        <v>1.035037673928295</v>
+      </c>
+      <c r="P33">
+        <v>2.661525447244187</v>
+      </c>
+      <c r="Q33">
+        <v>3.447525447244187</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1036719038318362</v>
+      </c>
+      <c r="T33">
+        <v>1.2369321211428</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.28</v>
+      </c>
+      <c r="W33">
+        <v>0.011664</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>19.08168439262486</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.0749734369223254</v>
+      </c>
+      <c r="C34">
+        <v>31.02322645669187</v>
+      </c>
+      <c r="D34">
+        <v>41.17986947238401</v>
+      </c>
+      <c r="E34">
+        <v>12.2183835916542</v>
+      </c>
+      <c r="F34">
+        <v>13.02664301569214</v>
+      </c>
+      <c r="G34">
+        <v>2.87</v>
+      </c>
+      <c r="H34">
+        <v>39.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>4.687</v>
+      </c>
+      <c r="K34">
+        <v>0.786</v>
+      </c>
+      <c r="L34">
+        <v>3.901</v>
+      </c>
+      <c r="M34">
+        <v>0.2110316168542127</v>
+      </c>
+      <c r="N34">
+        <v>3.689968383145787</v>
+      </c>
+      <c r="O34">
+        <v>1.033191147280821</v>
+      </c>
+      <c r="P34">
+        <v>2.656777235864967</v>
+      </c>
+      <c r="Q34">
+        <v>3.442777235864967</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1047661131210668</v>
+      </c>
+      <c r="T34">
+        <v>1.251273917399383</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.28</v>
+      </c>
+      <c r="W34">
+        <v>0.011664</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>18.48538175535533</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.07479742020068382</v>
+      </c>
+      <c r="C35">
+        <v>30.72680998639878</v>
+      </c>
+      <c r="D35">
+        <v>41.29053559633131</v>
+      </c>
+      <c r="E35">
+        <v>12.62546618589458</v>
+      </c>
+      <c r="F35">
+        <v>13.43372560993252</v>
+      </c>
+      <c r="G35">
+        <v>2.87</v>
+      </c>
+      <c r="H35">
+        <v>39.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>4.687</v>
+      </c>
+      <c r="K35">
+        <v>0.786</v>
+      </c>
+      <c r="L35">
+        <v>3.901</v>
+      </c>
+      <c r="M35">
+        <v>0.2176263548809068</v>
+      </c>
+      <c r="N35">
+        <v>3.683373645119093</v>
+      </c>
+      <c r="O35">
+        <v>1.031344620633346</v>
+      </c>
+      <c r="P35">
+        <v>2.652029024485747</v>
+      </c>
+      <c r="Q35">
+        <v>3.438029024485747</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.105892985374155</v>
+      </c>
+      <c r="T35">
+        <v>1.266043826977059</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.28</v>
+      </c>
+      <c r="W35">
+        <v>0.011664</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>17.92521867185972</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.07462140347904223</v>
+      </c>
+      <c r="C36">
+        <v>30.43098992363209</v>
+      </c>
+      <c r="D36">
+        <v>41.40179812780499</v>
+      </c>
+      <c r="E36">
+        <v>13.03254878013496</v>
+      </c>
+      <c r="F36">
+        <v>13.8408082041729</v>
+      </c>
+      <c r="G36">
+        <v>2.87</v>
+      </c>
+      <c r="H36">
+        <v>39.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>4.687</v>
+      </c>
+      <c r="K36">
+        <v>0.786</v>
+      </c>
+      <c r="L36">
+        <v>3.901</v>
+      </c>
+      <c r="M36">
+        <v>0.224221092907601</v>
+      </c>
+      <c r="N36">
+        <v>3.676778907092399</v>
+      </c>
+      <c r="O36">
+        <v>1.029498093985872</v>
+      </c>
+      <c r="P36">
+        <v>2.647280813106527</v>
+      </c>
+      <c r="Q36">
+        <v>3.433280813106527</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1070540052712761</v>
+      </c>
+      <c r="T36">
+        <v>1.28126130957224</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.28</v>
+      </c>
+      <c r="W36">
+        <v>0.011664</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>17.39800635798149</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.07444538675740063</v>
+      </c>
+      <c r="C37">
+        <v>30.13577110270327</v>
+      </c>
+      <c r="D37">
+        <v>41.51366190111655</v>
+      </c>
+      <c r="E37">
+        <v>13.43963137437534</v>
+      </c>
+      <c r="F37">
+        <v>14.24789079841328</v>
+      </c>
+      <c r="G37">
+        <v>2.87</v>
+      </c>
+      <c r="H37">
+        <v>39.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>4.687</v>
+      </c>
+      <c r="K37">
+        <v>0.786</v>
+      </c>
+      <c r="L37">
+        <v>3.901</v>
+      </c>
+      <c r="M37">
+        <v>0.2308158309342951</v>
+      </c>
+      <c r="N37">
+        <v>3.670184169065705</v>
+      </c>
+      <c r="O37">
+        <v>1.027651567338398</v>
+      </c>
+      <c r="P37">
+        <v>2.642532601727308</v>
+      </c>
+      <c r="Q37">
+        <v>3.428532601727308</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1082507488575394</v>
+      </c>
+      <c r="T37">
+        <v>1.296947022401119</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.28</v>
+      </c>
+      <c r="W37">
+        <v>0.011664</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>16.90092046203916</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.07426937003575904</v>
+      </c>
+      <c r="C38">
+        <v>29.84115841031279</v>
+      </c>
+      <c r="D38">
+        <v>41.62613180296646</v>
+      </c>
+      <c r="E38">
+        <v>13.84671396861572</v>
+      </c>
+      <c r="F38">
+        <v>14.65497339265366</v>
+      </c>
+      <c r="G38">
+        <v>2.87</v>
+      </c>
+      <c r="H38">
+        <v>39.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>4.687</v>
+      </c>
+      <c r="K38">
+        <v>0.786</v>
+      </c>
+      <c r="L38">
+        <v>3.901</v>
+      </c>
+      <c r="M38">
+        <v>0.2374105689609892</v>
+      </c>
+      <c r="N38">
+        <v>3.663589431039011</v>
+      </c>
+      <c r="O38">
+        <v>1.025805040690923</v>
+      </c>
+      <c r="P38">
+        <v>2.637784390348088</v>
+      </c>
+      <c r="Q38">
+        <v>3.423784390348088</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1094848906808735</v>
+      </c>
+      <c r="T38">
+        <v>1.3131229137559</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.28</v>
+      </c>
+      <c r="W38">
+        <v>0.011664</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>16.43145044920474</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.07409335331411743</v>
+      </c>
+      <c r="C39">
+        <v>29.54715678626172</v>
+      </c>
+      <c r="D39">
+        <v>41.73921277315576</v>
+      </c>
+      <c r="E39">
+        <v>14.2537965628561</v>
+      </c>
+      <c r="F39">
+        <v>15.06205598689404</v>
+      </c>
+      <c r="G39">
+        <v>2.87</v>
+      </c>
+      <c r="H39">
+        <v>39.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>4.687</v>
+      </c>
+      <c r="K39">
+        <v>0.786</v>
+      </c>
+      <c r="L39">
+        <v>3.901</v>
+      </c>
+      <c r="M39">
+        <v>0.2440053069876834</v>
+      </c>
+      <c r="N39">
+        <v>3.656994693012317</v>
+      </c>
+      <c r="O39">
+        <v>1.023958514043449</v>
+      </c>
+      <c r="P39">
+        <v>2.633036178968868</v>
+      </c>
+      <c r="Q39">
+        <v>3.419036178968868</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1107582116097102</v>
+      </c>
+      <c r="T39">
+        <v>1.32981232547115</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.28</v>
+      </c>
+      <c r="W39">
+        <v>0.011664</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>15.98735719382083</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.07391733659247585</v>
+      </c>
+      <c r="C40">
+        <v>29.2537712241749</v>
+      </c>
+      <c r="D40">
+        <v>41.85290980530932</v>
+      </c>
+      <c r="E40">
+        <v>14.66087915709648</v>
+      </c>
+      <c r="F40">
+        <v>15.46913858113442</v>
+      </c>
+      <c r="G40">
+        <v>2.87</v>
+      </c>
+      <c r="H40">
+        <v>39.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>4.687</v>
+      </c>
+      <c r="K40">
+        <v>0.786</v>
+      </c>
+      <c r="L40">
+        <v>3.901</v>
+      </c>
+      <c r="M40">
+        <v>0.2506000450143775</v>
+      </c>
+      <c r="N40">
+        <v>3.650399954985623</v>
+      </c>
+      <c r="O40">
+        <v>1.022111987395975</v>
+      </c>
+      <c r="P40">
+        <v>2.628287967589648</v>
+      </c>
+      <c r="Q40">
+        <v>3.414287967589648</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1120726074072191</v>
+      </c>
+      <c r="T40">
+        <v>1.347040105306247</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.28</v>
+      </c>
+      <c r="W40">
+        <v>0.011664</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>15.56663726766765</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.07374131987083424</v>
+      </c>
+      <c r="C41">
+        <v>28.96100677223605</v>
+      </c>
+      <c r="D41">
+        <v>41.96722794761085</v>
+      </c>
+      <c r="E41">
+        <v>15.06796175133686</v>
+      </c>
+      <c r="F41">
+        <v>15.8762211753748</v>
+      </c>
+      <c r="G41">
+        <v>2.87</v>
+      </c>
+      <c r="H41">
+        <v>39.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>4.687</v>
+      </c>
+      <c r="K41">
+        <v>0.786</v>
+      </c>
+      <c r="L41">
+        <v>3.901</v>
+      </c>
+      <c r="M41">
+        <v>0.2571947830410717</v>
+      </c>
+      <c r="N41">
+        <v>3.643805216958929</v>
+      </c>
+      <c r="O41">
+        <v>1.0202654607485</v>
+      </c>
+      <c r="P41">
+        <v>2.623539756210429</v>
+      </c>
+      <c r="Q41">
+        <v>3.409539756210429</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1134300981489086</v>
+      </c>
+      <c r="T41">
+        <v>1.364832730381839</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.28</v>
+      </c>
+      <c r="W41">
+        <v>0.011664</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>15.16749272234284</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.07356530314919264</v>
+      </c>
+      <c r="C42">
+        <v>28.66886853393491</v>
+      </c>
+      <c r="D42">
+        <v>42.08217230355009</v>
+      </c>
+      <c r="E42">
+        <v>15.47504434557724</v>
+      </c>
+      <c r="F42">
+        <v>16.28330376961518</v>
+      </c>
+      <c r="G42">
+        <v>2.87</v>
+      </c>
+      <c r="H42">
+        <v>39.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>4.687</v>
+      </c>
+      <c r="K42">
+        <v>0.786</v>
+      </c>
+      <c r="L42">
+        <v>3.901</v>
+      </c>
+      <c r="M42">
+        <v>0.2637895210677659</v>
+      </c>
+      <c r="N42">
+        <v>3.637210478932234</v>
+      </c>
+      <c r="O42">
+        <v>1.018418934101026</v>
+      </c>
+      <c r="P42">
+        <v>2.618791544831208</v>
+      </c>
+      <c r="Q42">
+        <v>3.404791544831208</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1148328385819877</v>
+      </c>
+      <c r="T42">
+        <v>1.383218442959951</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.28</v>
+      </c>
+      <c r="W42">
+        <v>0.011664</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>14.78830540428427</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.07338928642755102</v>
+      </c>
+      <c r="C43">
+        <v>28.37736166882676</v>
+      </c>
+      <c r="D43">
+        <v>42.19774803268232</v>
+      </c>
+      <c r="E43">
+        <v>15.88212693981762</v>
+      </c>
+      <c r="F43">
+        <v>16.69038636385556</v>
+      </c>
+      <c r="G43">
+        <v>2.87</v>
+      </c>
+      <c r="H43">
+        <v>39.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>4.687</v>
+      </c>
+      <c r="K43">
+        <v>0.786</v>
+      </c>
+      <c r="L43">
+        <v>3.901</v>
+      </c>
+      <c r="M43">
+        <v>0.27038425909446</v>
+      </c>
+      <c r="N43">
+        <v>3.63061574090554</v>
+      </c>
+      <c r="O43">
+        <v>1.016572407453551</v>
+      </c>
+      <c r="P43">
+        <v>2.614043333451989</v>
+      </c>
+      <c r="Q43">
+        <v>3.400043333451989</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1162831295382221</v>
+      </c>
+      <c r="T43">
+        <v>1.402227400032236</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.28</v>
+      </c>
+      <c r="W43">
+        <v>0.011664</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>14.42761502857002</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.07321326970590944</v>
+      </c>
+      <c r="C44">
+        <v>28.08649139330435</v>
+      </c>
+      <c r="D44">
+        <v>42.31396035140028</v>
+      </c>
+      <c r="E44">
+        <v>16.28920953405799</v>
+      </c>
+      <c r="F44">
+        <v>17.09746895809593</v>
+      </c>
+      <c r="G44">
+        <v>2.87</v>
+      </c>
+      <c r="H44">
+        <v>39.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>4.687</v>
+      </c>
+      <c r="K44">
+        <v>0.786</v>
+      </c>
+      <c r="L44">
+        <v>3.901</v>
+      </c>
+      <c r="M44">
+        <v>0.2769789971211541</v>
+      </c>
+      <c r="N44">
+        <v>3.624021002878846</v>
+      </c>
+      <c r="O44">
+        <v>1.014725880806077</v>
+      </c>
+      <c r="P44">
+        <v>2.609295122072769</v>
+      </c>
+      <c r="Q44">
+        <v>3.395295122072769</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1177834305274301</v>
+      </c>
+      <c r="T44">
+        <v>1.421891838382876</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.28</v>
+      </c>
+      <c r="W44">
+        <v>0.011664</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>14.08410038503263</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.07303725298426784</v>
+      </c>
+      <c r="C45">
+        <v>27.79626298138281</v>
+      </c>
+      <c r="D45">
+        <v>42.43081453371912</v>
+      </c>
+      <c r="E45">
+        <v>16.69629212829837</v>
+      </c>
+      <c r="F45">
+        <v>17.50455155233631</v>
+      </c>
+      <c r="G45">
+        <v>2.87</v>
+      </c>
+      <c r="H45">
+        <v>39.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>4.687</v>
+      </c>
+      <c r="K45">
+        <v>0.786</v>
+      </c>
+      <c r="L45">
+        <v>3.901</v>
+      </c>
+      <c r="M45">
+        <v>0.2835737351478482</v>
+      </c>
+      <c r="N45">
+        <v>3.617426264852152</v>
+      </c>
+      <c r="O45">
+        <v>1.012879354158603</v>
+      </c>
+      <c r="P45">
+        <v>2.604546910693549</v>
+      </c>
+      <c r="Q45">
+        <v>3.390546910693549</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1193363736566102</v>
+      </c>
+      <c r="T45">
+        <v>1.442246257026521</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.28</v>
+      </c>
+      <c r="W45">
+        <v>0.011664</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>13.75656316677606</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.07336811626262625</v>
+      </c>
+      <c r="C46">
+        <v>27.17005737839817</v>
+      </c>
+      <c r="D46">
+        <v>42.21169152497487</v>
+      </c>
+      <c r="E46">
+        <v>17.10337472253875</v>
+      </c>
+      <c r="F46">
+        <v>17.9116341465767</v>
+      </c>
+      <c r="G46">
+        <v>2.87</v>
+      </c>
+      <c r="H46">
+        <v>39.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>4.687</v>
+      </c>
+      <c r="K46">
+        <v>0.786</v>
+      </c>
+      <c r="L46">
+        <v>3.901</v>
+      </c>
+      <c r="M46">
+        <v>0.3188270878090652</v>
+      </c>
+      <c r="N46">
+        <v>3.582172912190935</v>
+      </c>
+      <c r="O46">
+        <v>1.003008415413462</v>
+      </c>
+      <c r="P46">
+        <v>2.579164496777473</v>
+      </c>
+      <c r="Q46">
+        <v>3.365164496777473</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.120944779040404</v>
+      </c>
+      <c r="T46">
+        <v>1.463327619193153</v>
+      </c>
+      <c r="U46">
+        <v>0.0178</v>
+      </c>
+      <c r="V46">
+        <v>0.28</v>
+      </c>
+      <c r="W46">
+        <v>0.012816</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>12.23547229567953</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.07320361954098464</v>
+      </c>
+      <c r="C47">
+        <v>26.87163349426969</v>
+      </c>
+      <c r="D47">
+        <v>42.32035023508676</v>
+      </c>
+      <c r="E47">
+        <v>17.51045731677913</v>
+      </c>
+      <c r="F47">
+        <v>18.31871674081707</v>
+      </c>
+      <c r="G47">
+        <v>2.87</v>
+      </c>
+      <c r="H47">
+        <v>39.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>4.687</v>
+      </c>
+      <c r="K47">
+        <v>0.786</v>
+      </c>
+      <c r="L47">
+        <v>3.901</v>
+      </c>
+      <c r="M47">
+        <v>0.3260731579865439</v>
+      </c>
+      <c r="N47">
+        <v>3.574926842013456</v>
+      </c>
+      <c r="O47">
+        <v>1.000979515763768</v>
+      </c>
+      <c r="P47">
+        <v>2.573947326249688</v>
+      </c>
+      <c r="Q47">
+        <v>3.359947326249688</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1226116718926993</v>
+      </c>
+      <c r="T47">
+        <v>1.485175576347662</v>
+      </c>
+      <c r="U47">
+        <v>0.0178</v>
+      </c>
+      <c r="V47">
+        <v>0.28</v>
+      </c>
+      <c r="W47">
+        <v>0.012816</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>11.96357291133109</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.07303912281934305</v>
+      </c>
+      <c r="C48">
+        <v>26.57377045882568</v>
+      </c>
+      <c r="D48">
+        <v>42.42956979388313</v>
+      </c>
+      <c r="E48">
+        <v>17.91753991101951</v>
+      </c>
+      <c r="F48">
+        <v>18.72579933505745</v>
+      </c>
+      <c r="G48">
+        <v>2.87</v>
+      </c>
+      <c r="H48">
+        <v>39.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>4.687</v>
+      </c>
+      <c r="K48">
+        <v>0.786</v>
+      </c>
+      <c r="L48">
+        <v>3.901</v>
+      </c>
+      <c r="M48">
+        <v>0.3333192281640227</v>
+      </c>
+      <c r="N48">
+        <v>3.567680771835978</v>
+      </c>
+      <c r="O48">
+        <v>0.9989506161140738</v>
+      </c>
+      <c r="P48">
+        <v>2.568730155721904</v>
+      </c>
+      <c r="Q48">
+        <v>3.354730155721904</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1243403015173019</v>
+      </c>
+      <c r="T48">
+        <v>1.507832717100487</v>
+      </c>
+      <c r="U48">
+        <v>0.0178</v>
+      </c>
+      <c r="V48">
+        <v>0.28</v>
+      </c>
+      <c r="W48">
+        <v>0.012816</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>11.70349523934563</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.07287462609770144</v>
+      </c>
+      <c r="C49">
+        <v>26.27647262558462</v>
+      </c>
+      <c r="D49">
+        <v>42.53935455488246</v>
+      </c>
+      <c r="E49">
+        <v>18.32462250525989</v>
+      </c>
+      <c r="F49">
+        <v>19.13288192929783</v>
+      </c>
+      <c r="G49">
+        <v>2.87</v>
+      </c>
+      <c r="H49">
+        <v>39.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>4.687</v>
+      </c>
+      <c r="K49">
+        <v>0.786</v>
+      </c>
+      <c r="L49">
+        <v>3.901</v>
+      </c>
+      <c r="M49">
+        <v>0.3405652983415015</v>
+      </c>
+      <c r="N49">
+        <v>3.560434701658499</v>
+      </c>
+      <c r="O49">
+        <v>0.9969217164643798</v>
+      </c>
+      <c r="P49">
+        <v>2.563512985194119</v>
+      </c>
+      <c r="Q49">
+        <v>3.349512985194119</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1261341624484933</v>
+      </c>
+      <c r="T49">
+        <v>1.531344844296815</v>
+      </c>
+      <c r="U49">
+        <v>0.0178</v>
+      </c>
+      <c r="V49">
+        <v>0.28</v>
+      </c>
+      <c r="W49">
+        <v>0.012816</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>11.45448470233828</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.07271012937605983</v>
+      </c>
+      <c r="C50">
+        <v>25.9797443932401</v>
+      </c>
+      <c r="D50">
+        <v>42.64970891677831</v>
+      </c>
+      <c r="E50">
+        <v>18.73170509950027</v>
+      </c>
+      <c r="F50">
+        <v>19.53996452353821</v>
+      </c>
+      <c r="G50">
+        <v>2.87</v>
+      </c>
+      <c r="H50">
+        <v>39.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>4.687</v>
+      </c>
+      <c r="K50">
+        <v>0.786</v>
+      </c>
+      <c r="L50">
+        <v>3.901</v>
+      </c>
+      <c r="M50">
+        <v>0.3478113685189801</v>
+      </c>
+      <c r="N50">
+        <v>3.55318863148102</v>
+      </c>
+      <c r="O50">
+        <v>0.9948928168146857</v>
+      </c>
+      <c r="P50">
+        <v>2.558295814666334</v>
+      </c>
+      <c r="Q50">
+        <v>3.344295814666334</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1279970180308843</v>
+      </c>
+      <c r="T50">
+        <v>1.555761284077616</v>
+      </c>
+      <c r="U50">
+        <v>0.0178</v>
+      </c>
+      <c r="V50">
+        <v>0.28</v>
+      </c>
+      <c r="W50">
+        <v>0.012816</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>11.2158496043729</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.07254563265441825</v>
+      </c>
+      <c r="C51">
+        <v>25.6835902062482</v>
+      </c>
+      <c r="D51">
+        <v>42.7606373240268</v>
+      </c>
+      <c r="E51">
+        <v>19.13878769374065</v>
+      </c>
+      <c r="F51">
+        <v>19.94704711777859</v>
+      </c>
+      <c r="G51">
+        <v>2.87</v>
+      </c>
+      <c r="H51">
+        <v>39.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>4.687</v>
+      </c>
+      <c r="K51">
+        <v>0.786</v>
+      </c>
+      <c r="L51">
+        <v>3.901</v>
+      </c>
+      <c r="M51">
+        <v>0.3550574386964589</v>
+      </c>
+      <c r="N51">
+        <v>3.545942561303541</v>
+      </c>
+      <c r="O51">
+        <v>0.9928639171649916</v>
+      </c>
+      <c r="P51">
+        <v>2.55307864413855</v>
+      </c>
+      <c r="Q51">
+        <v>3.33907864413855</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1299329267733691</v>
+      </c>
+      <c r="T51">
+        <v>1.581135231300803</v>
+      </c>
+      <c r="U51">
+        <v>0.0178</v>
+      </c>
+      <c r="V51">
+        <v>0.28</v>
+      </c>
+      <c r="W51">
+        <v>0.012816</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>10.98695471448774</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.07238113593277665</v>
+      </c>
+      <c r="C52">
+        <v>25.38801455542437</v>
+      </c>
+      <c r="D52">
+        <v>42.87214426744335</v>
+      </c>
+      <c r="E52">
+        <v>19.54587028798103</v>
+      </c>
+      <c r="F52">
+        <v>20.35412971201897</v>
+      </c>
+      <c r="G52">
+        <v>2.87</v>
+      </c>
+      <c r="H52">
+        <v>39.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>4.687</v>
+      </c>
+      <c r="K52">
+        <v>0.786</v>
+      </c>
+      <c r="L52">
+        <v>3.901</v>
+      </c>
+      <c r="M52">
+        <v>0.3623035088739377</v>
+      </c>
+      <c r="N52">
+        <v>3.538696491126062</v>
+      </c>
+      <c r="O52">
+        <v>0.9908350175152976</v>
+      </c>
+      <c r="P52">
+        <v>2.547861473610765</v>
+      </c>
+      <c r="Q52">
+        <v>3.333861473610765</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1319462718655533</v>
+      </c>
+      <c r="T52">
+        <v>1.607524136412916</v>
+      </c>
+      <c r="U52">
+        <v>0.0178</v>
+      </c>
+      <c r="V52">
+        <v>0.28</v>
+      </c>
+      <c r="W52">
+        <v>0.012816</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>10.76721562019798</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.07302447921113506</v>
+      </c>
+      <c r="C53">
+        <v>24.54810761825155</v>
+      </c>
+      <c r="D53">
+        <v>42.4393199245109</v>
+      </c>
+      <c r="E53">
+        <v>19.95295288222141</v>
+      </c>
+      <c r="F53">
+        <v>20.76121230625935</v>
+      </c>
+      <c r="G53">
+        <v>2.87</v>
+      </c>
+      <c r="H53">
+        <v>39.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>4.687</v>
+      </c>
+      <c r="K53">
+        <v>0.786</v>
+      </c>
+      <c r="L53">
+        <v>3.901</v>
+      </c>
+      <c r="M53">
+        <v>0.4152242461251869</v>
+      </c>
+      <c r="N53">
+        <v>3.485775753874814</v>
+      </c>
+      <c r="O53">
+        <v>0.9760172110849479</v>
+      </c>
+      <c r="P53">
+        <v>2.509758542789866</v>
+      </c>
+      <c r="Q53">
+        <v>3.295758542789866</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1340417943084389</v>
+      </c>
+      <c r="T53">
+        <v>1.634990139692871</v>
+      </c>
+      <c r="U53">
+        <v>0.02</v>
+      </c>
+      <c r="V53">
+        <v>0.28</v>
+      </c>
+      <c r="W53">
+        <v>0.0144</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>9.394923433310007</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.07287582248949345</v>
+      </c>
+      <c r="C54">
+        <v>24.24025913411206</v>
+      </c>
+      <c r="D54">
+        <v>42.53855403461179</v>
+      </c>
+      <c r="E54">
+        <v>20.36003547646179</v>
+      </c>
+      <c r="F54">
+        <v>21.16829490049973</v>
+      </c>
+      <c r="G54">
+        <v>2.87</v>
+      </c>
+      <c r="H54">
+        <v>39.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>4.687</v>
+      </c>
+      <c r="K54">
+        <v>0.786</v>
+      </c>
+      <c r="L54">
+        <v>3.901</v>
+      </c>
+      <c r="M54">
+        <v>0.4233658980099946</v>
+      </c>
+      <c r="N54">
+        <v>3.477634101990006</v>
+      </c>
+      <c r="O54">
+        <v>0.9737375485572017</v>
+      </c>
+      <c r="P54">
+        <v>2.503896553432804</v>
+      </c>
+      <c r="Q54">
+        <v>3.289896553432804</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1362246301864447</v>
+      </c>
+      <c r="T54">
+        <v>1.663600559776158</v>
+      </c>
+      <c r="U54">
+        <v>0.02</v>
+      </c>
+      <c r="V54">
+        <v>0.28</v>
+      </c>
+      <c r="W54">
+        <v>0.0144</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>9.214251828823274</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.07272716576785186</v>
+      </c>
+      <c r="C55">
+        <v>23.93287580767917</v>
+      </c>
+      <c r="D55">
+        <v>42.63825330241929</v>
+      </c>
+      <c r="E55">
+        <v>20.76711807070217</v>
+      </c>
+      <c r="F55">
+        <v>21.57537749474011</v>
+      </c>
+      <c r="G55">
+        <v>2.87</v>
+      </c>
+      <c r="H55">
+        <v>39.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>4.687</v>
+      </c>
+      <c r="K55">
+        <v>0.786</v>
+      </c>
+      <c r="L55">
+        <v>3.901</v>
+      </c>
+      <c r="M55">
+        <v>0.4315075498948021</v>
+      </c>
+      <c r="N55">
+        <v>3.469492450105198</v>
+      </c>
+      <c r="O55">
+        <v>0.9714578860294556</v>
+      </c>
+      <c r="P55">
+        <v>2.498034564075743</v>
+      </c>
+      <c r="Q55">
+        <v>3.284034564075743</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1385003526975572</v>
+      </c>
+      <c r="T55">
+        <v>1.693428444543839</v>
+      </c>
+      <c r="U55">
+        <v>0.02</v>
+      </c>
+      <c r="V55">
+        <v>0.28</v>
+      </c>
+      <c r="W55">
+        <v>0.0144</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>9.040398020732271</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.07257850904621026</v>
+      </c>
+      <c r="C56">
+        <v>23.62596091726116</v>
+      </c>
+      <c r="D56">
+        <v>42.73842100624165</v>
+      </c>
+      <c r="E56">
+        <v>21.17420066494255</v>
+      </c>
+      <c r="F56">
+        <v>21.98246008898049</v>
+      </c>
+      <c r="G56">
+        <v>2.87</v>
+      </c>
+      <c r="H56">
+        <v>39.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>4.687</v>
+      </c>
+      <c r="K56">
+        <v>0.786</v>
+      </c>
+      <c r="L56">
+        <v>3.901</v>
+      </c>
+      <c r="M56">
+        <v>0.4396492017796097</v>
+      </c>
+      <c r="N56">
+        <v>3.461350798220391</v>
+      </c>
+      <c r="O56">
+        <v>0.9691782235017095</v>
+      </c>
+      <c r="P56">
+        <v>2.492172574718681</v>
+      </c>
+      <c r="Q56">
+        <v>3.278172574718681</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1408750196656745</v>
+      </c>
+      <c r="T56">
+        <v>1.724553193866637</v>
+      </c>
+      <c r="U56">
+        <v>0.02</v>
+      </c>
+      <c r="V56">
+        <v>0.28</v>
+      </c>
+      <c r="W56">
+        <v>0.0144</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>8.872983242570562</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.07242985232456867</v>
+      </c>
+      <c r="C57">
+        <v>23.31951777204502</v>
+      </c>
+      <c r="D57">
+        <v>42.83906045526589</v>
+      </c>
+      <c r="E57">
+        <v>21.58128325918293</v>
+      </c>
+      <c r="F57">
+        <v>22.38954268322087</v>
+      </c>
+      <c r="G57">
+        <v>2.87</v>
+      </c>
+      <c r="H57">
+        <v>39.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>4.687</v>
+      </c>
+      <c r="K57">
+        <v>0.786</v>
+      </c>
+      <c r="L57">
+        <v>3.901</v>
+      </c>
+      <c r="M57">
+        <v>0.4477908536644173</v>
+      </c>
+      <c r="N57">
+        <v>3.453209146335583</v>
+      </c>
+      <c r="O57">
+        <v>0.9668985609739633</v>
+      </c>
+      <c r="P57">
+        <v>2.48631058536162</v>
+      </c>
+      <c r="Q57">
+        <v>3.27231058536162</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1433552273879304</v>
+      </c>
+      <c r="T57">
+        <v>1.75706126538156</v>
+      </c>
+      <c r="U57">
+        <v>0.02</v>
+      </c>
+      <c r="V57">
+        <v>0.28</v>
+      </c>
+      <c r="W57">
+        <v>0.0144</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>8.711656274523822</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.07228119560292706</v>
+      </c>
+      <c r="C58">
+        <v>23.01354971246092</v>
+      </c>
+      <c r="D58">
+        <v>42.94017498992217</v>
+      </c>
+      <c r="E58">
+        <v>21.98836585342331</v>
+      </c>
+      <c r="F58">
+        <v>22.79662527746125</v>
+      </c>
+      <c r="G58">
+        <v>2.87</v>
+      </c>
+      <c r="H58">
+        <v>39.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>4.687</v>
+      </c>
+      <c r="K58">
+        <v>0.786</v>
+      </c>
+      <c r="L58">
+        <v>3.901</v>
+      </c>
+      <c r="M58">
+        <v>0.4559325055492249</v>
+      </c>
+      <c r="N58">
+        <v>3.445067494450775</v>
+      </c>
+      <c r="O58">
+        <v>0.9646188984462172</v>
+      </c>
+      <c r="P58">
+        <v>2.480448596004558</v>
+      </c>
+      <c r="Q58">
+        <v>3.266448596004558</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1459481718248342</v>
+      </c>
+      <c r="T58">
+        <v>1.791046976510797</v>
+      </c>
+      <c r="U58">
+        <v>0.02</v>
+      </c>
+      <c r="V58">
+        <v>0.28</v>
+      </c>
+      <c r="W58">
+        <v>0.0144</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>8.556090983907325</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.07213253888128546</v>
+      </c>
+      <c r="C59">
+        <v>22.70806011055178</v>
+      </c>
+      <c r="D59">
+        <v>43.04176798225341</v>
+      </c>
+      <c r="E59">
+        <v>22.39544844766369</v>
+      </c>
+      <c r="F59">
+        <v>23.20370787170163</v>
+      </c>
+      <c r="G59">
+        <v>2.87</v>
+      </c>
+      <c r="H59">
+        <v>39.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>4.687</v>
+      </c>
+      <c r="K59">
+        <v>0.786</v>
+      </c>
+      <c r="L59">
+        <v>3.901</v>
+      </c>
+      <c r="M59">
+        <v>0.4640741574340325</v>
+      </c>
+      <c r="N59">
+        <v>3.436925842565968</v>
+      </c>
+      <c r="O59">
+        <v>0.962339235918471</v>
+      </c>
+      <c r="P59">
+        <v>2.474586606647497</v>
+      </c>
+      <c r="Q59">
+        <v>3.260586606647497</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1486617183285708</v>
+      </c>
+      <c r="T59">
+        <v>1.826613418390231</v>
+      </c>
+      <c r="U59">
+        <v>0.02</v>
+      </c>
+      <c r="V59">
+        <v>0.28</v>
+      </c>
+      <c r="W59">
+        <v>0.0144</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>8.405984124540531</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.07198388215964387</v>
+      </c>
+      <c r="C60">
+        <v>22.40305237034811</v>
+      </c>
+      <c r="D60">
+        <v>43.14384283629011</v>
+      </c>
+      <c r="E60">
+        <v>22.80253104190406</v>
+      </c>
+      <c r="F60">
+        <v>23.610790465942</v>
+      </c>
+      <c r="G60">
+        <v>2.87</v>
+      </c>
+      <c r="H60">
+        <v>39.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>4.687</v>
+      </c>
+      <c r="K60">
+        <v>0.786</v>
+      </c>
+      <c r="L60">
+        <v>3.901</v>
+      </c>
+      <c r="M60">
+        <v>0.47221580931884</v>
+      </c>
+      <c r="N60">
+        <v>3.42878419068116</v>
+      </c>
+      <c r="O60">
+        <v>0.9600595733907249</v>
+      </c>
+      <c r="P60">
+        <v>2.468724617290435</v>
+      </c>
+      <c r="Q60">
+        <v>3.254724617290435</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1515044813324854</v>
+      </c>
+      <c r="T60">
+        <v>1.863873500359162</v>
+      </c>
+      <c r="U60">
+        <v>0.02</v>
+      </c>
+      <c r="V60">
+        <v>0.28</v>
+      </c>
+      <c r="W60">
+        <v>0.0144</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>8.261053363772593</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.07183522543800228</v>
+      </c>
+      <c r="C61">
+        <v>22.09852992824824</v>
+      </c>
+      <c r="D61">
+        <v>43.24640298843063</v>
+      </c>
+      <c r="E61">
+        <v>23.20961363614444</v>
+      </c>
+      <c r="F61">
+        <v>24.01787306018239</v>
+      </c>
+      <c r="G61">
+        <v>2.87</v>
+      </c>
+      <c r="H61">
+        <v>39.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>4.687</v>
+      </c>
+      <c r="K61">
+        <v>0.786</v>
+      </c>
+      <c r="L61">
+        <v>3.901</v>
+      </c>
+      <c r="M61">
+        <v>0.4803574612036476</v>
+      </c>
+      <c r="N61">
+        <v>3.420642538796352</v>
+      </c>
+      <c r="O61">
+        <v>0.9577799108629788</v>
+      </c>
+      <c r="P61">
+        <v>2.462862627933374</v>
+      </c>
+      <c r="Q61">
+        <v>3.248862627933374</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1544859157024445</v>
+      </c>
+      <c r="T61">
+        <v>1.902951147302187</v>
+      </c>
+      <c r="U61">
+        <v>0.02</v>
+      </c>
+      <c r="V61">
+        <v>0.28</v>
+      </c>
+      <c r="W61">
+        <v>0.0144</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>8.121035510149326</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.07168656871636066</v>
+      </c>
+      <c r="C62">
+        <v>21.79449625340398</v>
+      </c>
+      <c r="D62">
+        <v>43.34945190782675</v>
+      </c>
+      <c r="E62">
+        <v>23.61669623038482</v>
+      </c>
+      <c r="F62">
+        <v>24.42495565442276</v>
+      </c>
+      <c r="G62">
+        <v>2.87</v>
+      </c>
+      <c r="H62">
+        <v>39.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>4.687</v>
+      </c>
+      <c r="K62">
+        <v>0.786</v>
+      </c>
+      <c r="L62">
+        <v>3.901</v>
+      </c>
+      <c r="M62">
+        <v>0.4884991130884552</v>
+      </c>
+      <c r="N62">
+        <v>3.412500886911545</v>
+      </c>
+      <c r="O62">
+        <v>0.9555002483352327</v>
+      </c>
+      <c r="P62">
+        <v>2.457000638576313</v>
+      </c>
+      <c r="Q62">
+        <v>3.243000638576313</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1576164217909017</v>
+      </c>
+      <c r="T62">
+        <v>1.943982676592364</v>
+      </c>
+      <c r="U62">
+        <v>0.02</v>
+      </c>
+      <c r="V62">
+        <v>0.28</v>
+      </c>
+      <c r="W62">
+        <v>0.0144</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>7.985684918313506</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.07202103199471907</v>
+      </c>
+      <c r="C63">
+        <v>21.15625037407364</v>
+      </c>
+      <c r="D63">
+        <v>43.11828862273678</v>
+      </c>
+      <c r="E63">
+        <v>24.0237788246252</v>
+      </c>
+      <c r="F63">
+        <v>24.83203824866314</v>
+      </c>
+      <c r="G63">
+        <v>2.87</v>
+      </c>
+      <c r="H63">
+        <v>39.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>4.687</v>
+      </c>
+      <c r="K63">
+        <v>0.786</v>
+      </c>
+      <c r="L63">
+        <v>3.901</v>
+      </c>
+      <c r="M63">
+        <v>0.5239560070467923</v>
+      </c>
+      <c r="N63">
+        <v>3.377043992953208</v>
+      </c>
+      <c r="O63">
+        <v>0.9455723180268983</v>
+      </c>
+      <c r="P63">
+        <v>2.43147167492631</v>
+      </c>
+      <c r="Q63">
+        <v>3.21747167492631</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1609074666531258</v>
+      </c>
+      <c r="T63">
+        <v>1.98711838687178</v>
+      </c>
+      <c r="U63">
+        <v>0.0211</v>
+      </c>
+      <c r="V63">
+        <v>0.28</v>
+      </c>
+      <c r="W63">
+        <v>0.015192</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>7.445281564739496</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.07188029527307746</v>
+      </c>
+      <c r="C64">
+        <v>20.84613642718592</v>
+      </c>
+      <c r="D64">
+        <v>43.21525727008945</v>
+      </c>
+      <c r="E64">
+        <v>24.43086141886558</v>
+      </c>
+      <c r="F64">
+        <v>25.23912084290352</v>
+      </c>
+      <c r="G64">
+        <v>2.87</v>
+      </c>
+      <c r="H64">
+        <v>39.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>4.687</v>
+      </c>
+      <c r="K64">
+        <v>0.786</v>
+      </c>
+      <c r="L64">
+        <v>3.901</v>
+      </c>
+      <c r="M64">
+        <v>0.5325454497852644</v>
+      </c>
+      <c r="N64">
+        <v>3.368454550214736</v>
+      </c>
+      <c r="O64">
+        <v>0.9431672740601261</v>
+      </c>
+      <c r="P64">
+        <v>2.42528727615461</v>
+      </c>
+      <c r="Q64">
+        <v>3.21128727615461</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1643717244028354</v>
+      </c>
+      <c r="T64">
+        <v>2.032524397692218</v>
+      </c>
+      <c r="U64">
+        <v>0.0211</v>
+      </c>
+      <c r="V64">
+        <v>0.28</v>
+      </c>
+      <c r="W64">
+        <v>0.015192</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>7.325196378211438</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.07173955855143588</v>
+      </c>
+      <c r="C65">
+        <v>20.53645960861385</v>
+      </c>
+      <c r="D65">
+        <v>43.31266304575776</v>
+      </c>
+      <c r="E65">
+        <v>24.83794401310596</v>
+      </c>
+      <c r="F65">
+        <v>25.6462034371439</v>
+      </c>
+      <c r="G65">
+        <v>2.87</v>
+      </c>
+      <c r="H65">
+        <v>39.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>4.687</v>
+      </c>
+      <c r="K65">
+        <v>0.786</v>
+      </c>
+      <c r="L65">
+        <v>3.901</v>
+      </c>
+      <c r="M65">
+        <v>0.5411348925237364</v>
+      </c>
+      <c r="N65">
+        <v>3.359865107476264</v>
+      </c>
+      <c r="O65">
+        <v>0.940762230093354</v>
+      </c>
+      <c r="P65">
+        <v>2.41910287738291</v>
+      </c>
+      <c r="Q65">
+        <v>3.20510287738291</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1680232393282051</v>
+      </c>
+      <c r="T65">
+        <v>2.080384787475924</v>
+      </c>
+      <c r="U65">
+        <v>0.0211</v>
+      </c>
+      <c r="V65">
+        <v>0.28</v>
+      </c>
+      <c r="W65">
+        <v>0.015192</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>7.208923419827131</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.07159882182979428</v>
+      </c>
+      <c r="C66">
+        <v>20.2272228808536</v>
+      </c>
+      <c r="D66">
+        <v>43.41050891223789</v>
+      </c>
+      <c r="E66">
+        <v>25.24502660734634</v>
+      </c>
+      <c r="F66">
+        <v>26.05328603138428</v>
+      </c>
+      <c r="G66">
+        <v>2.87</v>
+      </c>
+      <c r="H66">
+        <v>39.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>4.687</v>
+      </c>
+      <c r="K66">
+        <v>0.786</v>
+      </c>
+      <c r="L66">
+        <v>3.901</v>
+      </c>
+      <c r="M66">
+        <v>0.5497243352622083</v>
+      </c>
+      <c r="N66">
+        <v>3.351275664737792</v>
+      </c>
+      <c r="O66">
+        <v>0.9383571861265819</v>
+      </c>
+      <c r="P66">
+        <v>2.41291847861121</v>
+      </c>
+      <c r="Q66">
+        <v>3.19891847861121</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.171877616193873</v>
+      </c>
+      <c r="T66">
+        <v>2.130904087803168</v>
+      </c>
+      <c r="U66">
+        <v>0.0211</v>
+      </c>
+      <c r="V66">
+        <v>0.28</v>
+      </c>
+      <c r="W66">
+        <v>0.015192</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>7.096283991392332</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.07145808510815267</v>
+      </c>
+      <c r="C67">
+        <v>19.9184292332317</v>
+      </c>
+      <c r="D67">
+        <v>43.50879785885637</v>
+      </c>
+      <c r="E67">
+        <v>25.65210920158672</v>
+      </c>
+      <c r="F67">
+        <v>26.46036862562466</v>
+      </c>
+      <c r="G67">
+        <v>2.87</v>
+      </c>
+      <c r="H67">
+        <v>39.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>4.687</v>
+      </c>
+      <c r="K67">
+        <v>0.786</v>
+      </c>
+      <c r="L67">
+        <v>3.901</v>
+      </c>
+      <c r="M67">
+        <v>0.5583137780006804</v>
+      </c>
+      <c r="N67">
+        <v>3.34268622199932</v>
+      </c>
+      <c r="O67">
+        <v>0.9359521421598096</v>
+      </c>
+      <c r="P67">
+        <v>2.40673407983951</v>
+      </c>
+      <c r="Q67">
+        <v>3.19273407983951</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1759522431661505</v>
+      </c>
+      <c r="T67">
+        <v>2.184310205291969</v>
+      </c>
+      <c r="U67">
+        <v>0.0211</v>
+      </c>
+      <c r="V67">
+        <v>0.28</v>
+      </c>
+      <c r="W67">
+        <v>0.015192</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>6.987110391524757</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.07131734838651106</v>
+      </c>
+      <c r="C68">
+        <v>19.61008168220956</v>
+      </c>
+      <c r="D68">
+        <v>43.60753290207461</v>
+      </c>
+      <c r="E68">
+        <v>26.0591917958271</v>
+      </c>
+      <c r="F68">
+        <v>26.86745121986504</v>
+      </c>
+      <c r="G68">
+        <v>2.87</v>
+      </c>
+      <c r="H68">
+        <v>39.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>4.687</v>
+      </c>
+      <c r="K68">
+        <v>0.786</v>
+      </c>
+      <c r="L68">
+        <v>3.901</v>
+      </c>
+      <c r="M68">
+        <v>0.5669032207391524</v>
+      </c>
+      <c r="N68">
+        <v>3.334096779260848</v>
+      </c>
+      <c r="O68">
+        <v>0.9335470981930374</v>
+      </c>
+      <c r="P68">
+        <v>2.40054968106781</v>
+      </c>
+      <c r="Q68">
+        <v>3.18654968106781</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1802665540779737</v>
+      </c>
+      <c r="T68">
+        <v>2.240857859103641</v>
+      </c>
+      <c r="U68">
+        <v>0.0211</v>
+      </c>
+      <c r="V68">
+        <v>0.28</v>
+      </c>
+      <c r="W68">
+        <v>0.015192</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>6.88124508256226</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.07117661166486947</v>
+      </c>
+      <c r="C69">
+        <v>19.30218327169203</v>
+      </c>
+      <c r="D69">
+        <v>43.70671708579746</v>
+      </c>
+      <c r="E69">
+        <v>26.46627439006748</v>
+      </c>
+      <c r="F69">
+        <v>27.27453381410542</v>
+      </c>
+      <c r="G69">
+        <v>2.87</v>
+      </c>
+      <c r="H69">
+        <v>39.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>4.687</v>
+      </c>
+      <c r="K69">
+        <v>0.786</v>
+      </c>
+      <c r="L69">
+        <v>3.901</v>
+      </c>
+      <c r="M69">
+        <v>0.5754926634776244</v>
+      </c>
+      <c r="N69">
+        <v>3.325507336522376</v>
+      </c>
+      <c r="O69">
+        <v>0.9311420542262653</v>
+      </c>
+      <c r="P69">
+        <v>2.394365282296111</v>
+      </c>
+      <c r="Q69">
+        <v>3.180365282296111</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1848423383783923</v>
+      </c>
+      <c r="T69">
+        <v>2.300832643449354</v>
+      </c>
+      <c r="U69">
+        <v>0.0211</v>
+      </c>
+      <c r="V69">
+        <v>0.28</v>
+      </c>
+      <c r="W69">
+        <v>0.015192</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>6.778539932076256</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.07103587494322787</v>
+      </c>
+      <c r="C70">
+        <v>18.99473707334025</v>
+      </c>
+      <c r="D70">
+        <v>43.80635348168605</v>
+      </c>
+      <c r="E70">
+        <v>26.87335698430786</v>
+      </c>
+      <c r="F70">
+        <v>27.6816164083458</v>
+      </c>
+      <c r="G70">
+        <v>2.87</v>
+      </c>
+      <c r="H70">
+        <v>39.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>4.687</v>
+      </c>
+      <c r="K70">
+        <v>0.786</v>
+      </c>
+      <c r="L70">
+        <v>3.901</v>
+      </c>
+      <c r="M70">
+        <v>0.5840821062160965</v>
+      </c>
+      <c r="N70">
+        <v>3.316917893783904</v>
+      </c>
+      <c r="O70">
+        <v>0.9287370102594932</v>
+      </c>
+      <c r="P70">
+        <v>2.388180883524411</v>
+      </c>
+      <c r="Q70">
+        <v>3.174180883524411</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1897041091975871</v>
+      </c>
+      <c r="T70">
+        <v>2.364555851816673</v>
+      </c>
+      <c r="U70">
+        <v>0.0211</v>
+      </c>
+      <c r="V70">
+        <v>0.28</v>
+      </c>
+      <c r="W70">
+        <v>0.015192</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>6.678855521310429</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.07089513822158629</v>
+      </c>
+      <c r="C71">
+        <v>18.68774618688865</v>
+      </c>
+      <c r="D71">
+        <v>43.90644518947484</v>
+      </c>
+      <c r="E71">
+        <v>27.28043957854824</v>
+      </c>
+      <c r="F71">
+        <v>28.08869900258618</v>
+      </c>
+      <c r="G71">
+        <v>2.87</v>
+      </c>
+      <c r="H71">
+        <v>39.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>4.687</v>
+      </c>
+      <c r="K71">
+        <v>0.786</v>
+      </c>
+      <c r="L71">
+        <v>3.901</v>
+      </c>
+      <c r="M71">
+        <v>0.5926715489545684</v>
+      </c>
+      <c r="N71">
+        <v>3.308328451045432</v>
+      </c>
+      <c r="O71">
+        <v>0.926331966292721</v>
+      </c>
+      <c r="P71">
+        <v>2.381996484752711</v>
+      </c>
+      <c r="Q71">
+        <v>3.167996484752711</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1948795426502784</v>
+      </c>
+      <c r="T71">
+        <v>2.432390234917369</v>
+      </c>
+      <c r="U71">
+        <v>0.0211</v>
+      </c>
+      <c r="V71">
+        <v>0.28</v>
+      </c>
+      <c r="W71">
+        <v>0.015192</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>6.582060513755206</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.07075440149994468</v>
+      </c>
+      <c r="C72">
+        <v>18.38121374046656</v>
+      </c>
+      <c r="D72">
+        <v>44.00699533729313</v>
+      </c>
+      <c r="E72">
+        <v>27.68752217278862</v>
+      </c>
+      <c r="F72">
+        <v>28.49578159682656</v>
+      </c>
+      <c r="G72">
+        <v>2.87</v>
+      </c>
+      <c r="H72">
+        <v>39.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>4.687</v>
+      </c>
+      <c r="K72">
+        <v>0.786</v>
+      </c>
+      <c r="L72">
+        <v>3.901</v>
+      </c>
+      <c r="M72">
+        <v>0.6012609916930405</v>
+      </c>
+      <c r="N72">
+        <v>3.29973900830696</v>
+      </c>
+      <c r="O72">
+        <v>0.9239269223259489</v>
+      </c>
+      <c r="P72">
+        <v>2.375812085981011</v>
+      </c>
+      <c r="Q72">
+        <v>3.161812085981011</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2004000049998156</v>
+      </c>
+      <c r="T72">
+        <v>2.504746910224777</v>
+      </c>
+      <c r="U72">
+        <v>0.0211</v>
+      </c>
+      <c r="V72">
+        <v>0.28</v>
+      </c>
+      <c r="W72">
+        <v>0.015192</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>6.488031077844417</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.07138046477830309</v>
+      </c>
+      <c r="C73">
+        <v>17.53033350601911</v>
+      </c>
+      <c r="D73">
+        <v>43.56319769708605</v>
+      </c>
+      <c r="E73">
+        <v>28.09460476702899</v>
+      </c>
+      <c r="F73">
+        <v>28.90286419106694</v>
+      </c>
+      <c r="G73">
+        <v>2.87</v>
+      </c>
+      <c r="H73">
+        <v>39.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>4.687</v>
+      </c>
+      <c r="K73">
+        <v>0.786</v>
+      </c>
+      <c r="L73">
+        <v>3.901</v>
+      </c>
+      <c r="M73">
+        <v>0.6532047307181127</v>
+      </c>
+      <c r="N73">
+        <v>3.247795269281887</v>
+      </c>
+      <c r="O73">
+        <v>0.9093826753989286</v>
+      </c>
+      <c r="P73">
+        <v>2.338412593882959</v>
+      </c>
+      <c r="Q73">
+        <v>3.124412593882959</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2063011888907003</v>
+      </c>
+      <c r="T73">
+        <v>2.582093701070626</v>
+      </c>
+      <c r="U73">
+        <v>0.0226</v>
+      </c>
+      <c r="V73">
+        <v>0.28</v>
+      </c>
+      <c r="W73">
+        <v>0.016272</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>5.972093918718812</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.07125052805666149</v>
+      </c>
+      <c r="C74">
+        <v>17.21462154687335</v>
+      </c>
+      <c r="D74">
+        <v>43.65456833218067</v>
+      </c>
+      <c r="E74">
+        <v>28.50168736126938</v>
+      </c>
+      <c r="F74">
+        <v>29.30994678530732</v>
+      </c>
+      <c r="G74">
+        <v>2.87</v>
+      </c>
+      <c r="H74">
+        <v>39.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>4.687</v>
+      </c>
+      <c r="K74">
+        <v>0.786</v>
+      </c>
+      <c r="L74">
+        <v>3.901</v>
+      </c>
+      <c r="M74">
+        <v>0.6624047973479453</v>
+      </c>
+      <c r="N74">
+        <v>3.238595202652055</v>
+      </c>
+      <c r="O74">
+        <v>0.9068066567425754</v>
+      </c>
+      <c r="P74">
+        <v>2.331788545909479</v>
+      </c>
+      <c r="Q74">
+        <v>3.117788545909479</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2126238859166482</v>
+      </c>
+      <c r="T74">
+        <v>2.66496526269118</v>
+      </c>
+      <c r="U74">
+        <v>0.0226</v>
+      </c>
+      <c r="V74">
+        <v>0.28</v>
+      </c>
+      <c r="W74">
+        <v>0.016272</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>5.889148169847717</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.07112059133501988</v>
+      </c>
+      <c r="C75">
+        <v>16.89929367984067</v>
+      </c>
+      <c r="D75">
+        <v>43.74632305938837</v>
+      </c>
+      <c r="E75">
+        <v>28.90876995550975</v>
+      </c>
+      <c r="F75">
+        <v>29.7170293795477</v>
+      </c>
+      <c r="G75">
+        <v>2.87</v>
+      </c>
+      <c r="H75">
+        <v>39.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>4.687</v>
+      </c>
+      <c r="K75">
+        <v>0.786</v>
+      </c>
+      <c r="L75">
+        <v>3.901</v>
+      </c>
+      <c r="M75">
+        <v>0.6716048639777779</v>
+      </c>
+      <c r="N75">
+        <v>3.229395136022222</v>
+      </c>
+      <c r="O75">
+        <v>0.9042306380862223</v>
+      </c>
+      <c r="P75">
+        <v>2.325164497936</v>
+      </c>
+      <c r="Q75">
+        <v>3.111164497936</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.219414930870444</v>
+      </c>
+      <c r="T75">
+        <v>2.753975458505848</v>
+      </c>
+      <c r="U75">
+        <v>0.0226</v>
+      </c>
+      <c r="V75">
+        <v>0.28</v>
+      </c>
+      <c r="W75">
+        <v>0.016272</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>5.808474907247064</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.07099065461337828</v>
+      </c>
+      <c r="C76">
+        <v>16.58435233191766</v>
+      </c>
+      <c r="D76">
+        <v>43.83846430570574</v>
+      </c>
+      <c r="E76">
+        <v>29.31585254975013</v>
+      </c>
+      <c r="F76">
+        <v>30.12411197378808</v>
+      </c>
+      <c r="G76">
+        <v>2.87</v>
+      </c>
+      <c r="H76">
+        <v>39.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>4.687</v>
+      </c>
+      <c r="K76">
+        <v>0.786</v>
+      </c>
+      <c r="L76">
+        <v>3.901</v>
+      </c>
+      <c r="M76">
+        <v>0.6808049306076105</v>
+      </c>
+      <c r="N76">
+        <v>3.22019506939239</v>
+      </c>
+      <c r="O76">
+        <v>0.9016546194298692</v>
+      </c>
+      <c r="P76">
+        <v>2.318540449962521</v>
+      </c>
+      <c r="Q76">
+        <v>3.104540449962521</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2267283638976088</v>
+      </c>
+      <c r="T76">
+        <v>2.849832592460107</v>
+      </c>
+      <c r="U76">
+        <v>0.0226</v>
+      </c>
+      <c r="V76">
+        <v>0.28</v>
+      </c>
+      <c r="W76">
+        <v>0.016272</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>5.729982003095077</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.0708607178917367</v>
+      </c>
+      <c r="C77">
+        <v>16.26979995059166</v>
+      </c>
+      <c r="D77">
+        <v>43.93099451862012</v>
+      </c>
+      <c r="E77">
+        <v>29.72293514399051</v>
+      </c>
+      <c r="F77">
+        <v>30.53119456802845</v>
+      </c>
+      <c r="G77">
+        <v>2.87</v>
+      </c>
+      <c r="H77">
+        <v>39.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>4.687</v>
+      </c>
+      <c r="K77">
+        <v>0.786</v>
+      </c>
+      <c r="L77">
+        <v>3.901</v>
+      </c>
+      <c r="M77">
+        <v>0.690004997237443</v>
+      </c>
+      <c r="N77">
+        <v>3.210995002762557</v>
+      </c>
+      <c r="O77">
+        <v>0.8990786007735161</v>
+      </c>
+      <c r="P77">
+        <v>2.311916401989041</v>
+      </c>
+      <c r="Q77">
+        <v>3.097916401989041</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2346268715669468</v>
+      </c>
+      <c r="T77">
+        <v>2.953358297130707</v>
+      </c>
+      <c r="U77">
+        <v>0.0226</v>
+      </c>
+      <c r="V77">
+        <v>0.28</v>
+      </c>
+      <c r="W77">
+        <v>0.016272</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>5.653582243053809</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.0707307811700951</v>
+      </c>
+      <c r="C78">
+        <v>15.95563900405749</v>
+      </c>
+      <c r="D78">
+        <v>44.02391616632633</v>
+      </c>
+      <c r="E78">
+        <v>30.13001773823089</v>
+      </c>
+      <c r="F78">
+        <v>30.93827716226884</v>
+      </c>
+      <c r="G78">
+        <v>2.87</v>
+      </c>
+      <c r="H78">
+        <v>39.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>4.687</v>
+      </c>
+      <c r="K78">
+        <v>0.786</v>
+      </c>
+      <c r="L78">
+        <v>3.901</v>
+      </c>
+      <c r="M78">
+        <v>0.6992050638672757</v>
+      </c>
+      <c r="N78">
+        <v>3.201794936132725</v>
+      </c>
+      <c r="O78">
+        <v>0.896502582117163</v>
+      </c>
+      <c r="P78">
+        <v>2.305292354015561</v>
+      </c>
+      <c r="Q78">
+        <v>3.091292354015561</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2431835882087296</v>
+      </c>
+      <c r="T78">
+        <v>3.065511143857189</v>
+      </c>
+      <c r="U78">
+        <v>0.0226</v>
+      </c>
+      <c r="V78">
+        <v>0.28</v>
+      </c>
+      <c r="W78">
+        <v>0.016272</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>5.579193003013627</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.07060084444845348</v>
+      </c>
+      <c r="C79">
+        <v>15.64187198143683</v>
+      </c>
+      <c r="D79">
+        <v>44.11723173794604</v>
+      </c>
+      <c r="E79">
+        <v>30.53710033247127</v>
+      </c>
+      <c r="F79">
+        <v>31.34535975650921</v>
+      </c>
+      <c r="G79">
+        <v>2.87</v>
+      </c>
+      <c r="H79">
+        <v>39.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>4.687</v>
+      </c>
+      <c r="K79">
+        <v>0.786</v>
+      </c>
+      <c r="L79">
+        <v>3.901</v>
+      </c>
+      <c r="M79">
+        <v>0.7084051304971082</v>
+      </c>
+      <c r="N79">
+        <v>3.192594869502892</v>
+      </c>
+      <c r="O79">
+        <v>0.8939265634608099</v>
+      </c>
+      <c r="P79">
+        <v>2.298668306042082</v>
+      </c>
+      <c r="Q79">
+        <v>3.084668306042082</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2524843671671891</v>
+      </c>
+      <c r="T79">
+        <v>3.187416412038148</v>
+      </c>
+      <c r="U79">
+        <v>0.0226</v>
+      </c>
+      <c r="V79">
+        <v>0.28</v>
+      </c>
+      <c r="W79">
+        <v>0.016272</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>5.506735951026437</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.07047090772681189</v>
+      </c>
+      <c r="C80">
+        <v>15.32850139300044</v>
+      </c>
+      <c r="D80">
+        <v>44.21094374375004</v>
+      </c>
+      <c r="E80">
+        <v>30.94418292671165</v>
+      </c>
+      <c r="F80">
+        <v>31.75244235074959</v>
+      </c>
+      <c r="G80">
+        <v>2.87</v>
+      </c>
+      <c r="H80">
+        <v>39.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>4.687</v>
+      </c>
+      <c r="K80">
+        <v>0.786</v>
+      </c>
+      <c r="L80">
+        <v>3.901</v>
+      </c>
+      <c r="M80">
+        <v>0.7176051971269407</v>
+      </c>
+      <c r="N80">
+        <v>3.183394802873059</v>
+      </c>
+      <c r="O80">
+        <v>0.8913505448044567</v>
+      </c>
+      <c r="P80">
+        <v>2.292044258068603</v>
+      </c>
+      <c r="Q80">
+        <v>3.078044258068603</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2626306714855086</v>
+      </c>
+      <c r="T80">
+        <v>3.320403977326468</v>
+      </c>
+      <c r="U80">
+        <v>0.0226</v>
+      </c>
+      <c r="V80">
+        <v>0.28</v>
+      </c>
+      <c r="W80">
+        <v>0.016272</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>5.436136772167124</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.07034097100517028</v>
+      </c>
+      <c r="C81">
+        <v>15.01552977039348</v>
+      </c>
+      <c r="D81">
+        <v>44.30505471538346</v>
+      </c>
+      <c r="E81">
+        <v>31.35126552095203</v>
+      </c>
+      <c r="F81">
+        <v>32.15952494498998</v>
+      </c>
+      <c r="G81">
+        <v>2.87</v>
+      </c>
+      <c r="H81">
+        <v>39.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>4.687</v>
+      </c>
+      <c r="K81">
+        <v>0.786</v>
+      </c>
+      <c r="L81">
+        <v>3.901</v>
+      </c>
+      <c r="M81">
+        <v>0.7268052637567733</v>
+      </c>
+      <c r="N81">
+        <v>3.174194736243227</v>
+      </c>
+      <c r="O81">
+        <v>0.8887745261481036</v>
+      </c>
+      <c r="P81">
+        <v>2.285420210095123</v>
+      </c>
+      <c r="Q81">
+        <v>3.071420210095123</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2737432905008109</v>
+      </c>
+      <c r="T81">
+        <v>3.466057025023198</v>
+      </c>
+      <c r="U81">
+        <v>0.0226</v>
+      </c>
+      <c r="V81">
+        <v>0.28</v>
+      </c>
+      <c r="W81">
+        <v>0.016272</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>5.36732491429159</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.07021103428352869</v>
+      </c>
+      <c r="C82">
+        <v>14.70295966686326</v>
+      </c>
+      <c r="D82">
+        <v>44.39956720609362</v>
+      </c>
+      <c r="E82">
+        <v>31.75834811519241</v>
+      </c>
+      <c r="F82">
+        <v>32.56660753923035</v>
+      </c>
+      <c r="G82">
+        <v>2.87</v>
+      </c>
+      <c r="H82">
+        <v>39.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>4.687</v>
+      </c>
+      <c r="K82">
+        <v>0.786</v>
+      </c>
+      <c r="L82">
+        <v>3.901</v>
+      </c>
+      <c r="M82">
+        <v>0.736005330386606</v>
+      </c>
+      <c r="N82">
+        <v>3.164994669613394</v>
+      </c>
+      <c r="O82">
+        <v>0.8861985074917504</v>
+      </c>
+      <c r="P82">
+        <v>2.278796162121644</v>
+      </c>
+      <c r="Q82">
+        <v>3.064796162121644</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2859671714176435</v>
+      </c>
+      <c r="T82">
+        <v>3.626275377489602</v>
+      </c>
+      <c r="U82">
+        <v>0.0226</v>
+      </c>
+      <c r="V82">
+        <v>0.28</v>
+      </c>
+      <c r="W82">
+        <v>0.016272</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>5.300233352862945</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.07008109756188709</v>
+      </c>
+      <c r="C83">
+        <v>14.39079365749028</v>
+      </c>
+      <c r="D83">
+        <v>44.49448379096101</v>
+      </c>
+      <c r="E83">
+        <v>32.16543070943279</v>
+      </c>
+      <c r="F83">
+        <v>32.97369013347073</v>
+      </c>
+      <c r="G83">
+        <v>2.87</v>
+      </c>
+      <c r="H83">
+        <v>39.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>4.687</v>
+      </c>
+      <c r="K83">
+        <v>0.786</v>
+      </c>
+      <c r="L83">
+        <v>3.901</v>
+      </c>
+      <c r="M83">
+        <v>0.7452053970164385</v>
+      </c>
+      <c r="N83">
+        <v>3.155794602983562</v>
+      </c>
+      <c r="O83">
+        <v>0.8836224888353974</v>
+      </c>
+      <c r="P83">
+        <v>2.272172114148165</v>
+      </c>
+      <c r="Q83">
+        <v>3.058172114148165</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.299477776641511</v>
+      </c>
+      <c r="T83">
+        <v>3.803358819689311</v>
+      </c>
+      <c r="U83">
+        <v>0.0226</v>
+      </c>
+      <c r="V83">
+        <v>0.28</v>
+      </c>
+      <c r="W83">
+        <v>0.016272</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>5.234798373197971</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.0699511608402455</v>
+      </c>
+      <c r="C84">
+        <v>14.07903433942198</v>
+      </c>
+      <c r="D84">
+        <v>44.58980706713309</v>
+      </c>
+      <c r="E84">
+        <v>32.57251330367317</v>
+      </c>
+      <c r="F84">
+        <v>33.38077272771111</v>
+      </c>
+      <c r="G84">
+        <v>2.87</v>
+      </c>
+      <c r="H84">
+        <v>39.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>4.687</v>
+      </c>
+      <c r="K84">
+        <v>0.786</v>
+      </c>
+      <c r="L84">
+        <v>3.901</v>
+      </c>
+      <c r="M84">
+        <v>0.754405463646271</v>
+      </c>
+      <c r="N84">
+        <v>3.146594536353729</v>
+      </c>
+      <c r="O84">
+        <v>0.8810464701790442</v>
+      </c>
+      <c r="P84">
+        <v>2.265548066174685</v>
+      </c>
+      <c r="Q84">
+        <v>3.051548066174685</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3144895602235862</v>
+      </c>
+      <c r="T84">
+        <v>4.000118199911211</v>
+      </c>
+      <c r="U84">
+        <v>0.0226</v>
+      </c>
+      <c r="V84">
+        <v>0.28</v>
+      </c>
+      <c r="W84">
+        <v>0.016272</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>5.170959368646776</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.06982122411860389</v>
+      </c>
+      <c r="C85">
+        <v>13.76768433210979</v>
+      </c>
+      <c r="D85">
+        <v>44.68553965406129</v>
+      </c>
+      <c r="E85">
+        <v>32.97959589791355</v>
+      </c>
+      <c r="F85">
+        <v>33.7878553219515</v>
+      </c>
+      <c r="G85">
+        <v>2.87</v>
+      </c>
+      <c r="H85">
+        <v>39.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>4.687</v>
+      </c>
+      <c r="K85">
+        <v>0.786</v>
+      </c>
+      <c r="L85">
+        <v>3.901</v>
+      </c>
+      <c r="M85">
+        <v>0.7636055302761038</v>
+      </c>
+      <c r="N85">
+        <v>3.137394469723897</v>
+      </c>
+      <c r="O85">
+        <v>0.8784704515226912</v>
+      </c>
+      <c r="P85">
+        <v>2.258924018201205</v>
+      </c>
+      <c r="Q85">
+        <v>3.044924018201205</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3312674359917878</v>
+      </c>
+      <c r="T85">
+        <v>4.220025742512158</v>
+      </c>
+      <c r="U85">
+        <v>0.0226</v>
+      </c>
+      <c r="V85">
+        <v>0.28</v>
+      </c>
+      <c r="W85">
+        <v>0.016272</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>5.108658653361875</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.0696912873969623</v>
+      </c>
+      <c r="C86">
+        <v>13.45674627754893</v>
+      </c>
+      <c r="D86">
+        <v>44.7816841937408</v>
+      </c>
+      <c r="E86">
+        <v>33.38667849215393</v>
+      </c>
+      <c r="F86">
+        <v>34.19493791619187</v>
+      </c>
+      <c r="G86">
+        <v>2.87</v>
+      </c>
+      <c r="H86">
+        <v>39.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>4.687</v>
+      </c>
+      <c r="K86">
+        <v>0.786</v>
+      </c>
+      <c r="L86">
+        <v>3.901</v>
+      </c>
+      <c r="M86">
+        <v>0.7728055969059362</v>
+      </c>
+      <c r="N86">
+        <v>3.128194403094064</v>
+      </c>
+      <c r="O86">
+        <v>0.8758944328663381</v>
+      </c>
+      <c r="P86">
+        <v>2.252299970227726</v>
+      </c>
+      <c r="Q86">
+        <v>3.038299970227726</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3501425462310143</v>
+      </c>
+      <c r="T86">
+        <v>4.46742172793822</v>
+      </c>
+      <c r="U86">
+        <v>0.0226</v>
+      </c>
+      <c r="V86">
+        <v>0.28</v>
+      </c>
+      <c r="W86">
+        <v>0.016272</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>5.047841288440901</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.06956135067532071</v>
+      </c>
+      <c r="C87">
+        <v>13.14622284052152</v>
+      </c>
+      <c r="D87">
+        <v>44.87824335095377</v>
+      </c>
+      <c r="E87">
+        <v>33.7937610863943</v>
+      </c>
+      <c r="F87">
+        <v>34.60202051043225</v>
+      </c>
+      <c r="G87">
+        <v>2.87</v>
+      </c>
+      <c r="H87">
+        <v>39.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>4.687</v>
+      </c>
+      <c r="K87">
+        <v>0.786</v>
+      </c>
+      <c r="L87">
+        <v>3.901</v>
+      </c>
+      <c r="M87">
+        <v>0.7820056635357687</v>
+      </c>
+      <c r="N87">
+        <v>3.118994336464231</v>
+      </c>
+      <c r="O87">
+        <v>0.8733184142099849</v>
+      </c>
+      <c r="P87">
+        <v>2.245675922254247</v>
+      </c>
+      <c r="Q87">
+        <v>3.031675922254247</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3715343378354714</v>
+      </c>
+      <c r="T87">
+        <v>4.747803844754427</v>
+      </c>
+      <c r="U87">
+        <v>0.0226</v>
+      </c>
+      <c r="V87">
+        <v>0.28</v>
+      </c>
+      <c r="W87">
+        <v>0.016272</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>4.988454920341596</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.06943141395367911</v>
+      </c>
+      <c r="C88">
+        <v>12.83611670884277</v>
+      </c>
+      <c r="D88">
+        <v>44.9752198135154</v>
+      </c>
+      <c r="E88">
+        <v>34.20084368063468</v>
+      </c>
+      <c r="F88">
+        <v>35.00910310467263</v>
+      </c>
+      <c r="G88">
+        <v>2.87</v>
+      </c>
+      <c r="H88">
+        <v>39.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>4.687</v>
+      </c>
+      <c r="K88">
+        <v>0.786</v>
+      </c>
+      <c r="L88">
+        <v>3.901</v>
+      </c>
+      <c r="M88">
+        <v>0.7912057301656013</v>
+      </c>
+      <c r="N88">
+        <v>3.109794269834399</v>
+      </c>
+      <c r="O88">
+        <v>0.8707423955536319</v>
+      </c>
+      <c r="P88">
+        <v>2.239051874280767</v>
+      </c>
+      <c r="Q88">
+        <v>3.025051874280767</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3959820996691364</v>
+      </c>
+      <c r="T88">
+        <v>5.068240549687234</v>
+      </c>
+      <c r="U88">
+        <v>0.0226</v>
+      </c>
+      <c r="V88">
+        <v>0.28</v>
+      </c>
+      <c r="W88">
+        <v>0.016272</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>4.930449630570183</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.0693014772320375</v>
+      </c>
+      <c r="C89">
+        <v>12.52643059361038</v>
+      </c>
+      <c r="D89">
+        <v>45.07261629252339</v>
+      </c>
+      <c r="E89">
+        <v>34.60792627487507</v>
+      </c>
+      <c r="F89">
+        <v>35.41618569891301</v>
+      </c>
+      <c r="G89">
+        <v>2.87</v>
+      </c>
+      <c r="H89">
+        <v>39.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>4.687</v>
+      </c>
+      <c r="K89">
+        <v>0.786</v>
+      </c>
+      <c r="L89">
+        <v>3.901</v>
+      </c>
+      <c r="M89">
+        <v>0.800405796795434</v>
+      </c>
+      <c r="N89">
+        <v>3.100594203204566</v>
+      </c>
+      <c r="O89">
+        <v>0.8681663768972786</v>
+      </c>
+      <c r="P89">
+        <v>2.232427826307287</v>
+      </c>
+      <c r="Q89">
+        <v>3.018427826307287</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4241910556310577</v>
+      </c>
+      <c r="T89">
+        <v>5.437975209225088</v>
+      </c>
+      <c r="U89">
+        <v>0.0226</v>
+      </c>
+      <c r="V89">
+        <v>0.28</v>
+      </c>
+      <c r="W89">
+        <v>0.016272</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>4.873777795736041</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.0691715405103959</v>
+      </c>
+      <c r="C90">
+        <v>12.21716722945718</v>
+      </c>
+      <c r="D90">
+        <v>45.17043552261057</v>
+      </c>
+      <c r="E90">
+        <v>35.01500886911545</v>
+      </c>
+      <c r="F90">
+        <v>35.82326829315339</v>
+      </c>
+      <c r="G90">
+        <v>2.87</v>
+      </c>
+      <c r="H90">
+        <v>39.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>4.687</v>
+      </c>
+      <c r="K90">
+        <v>0.786</v>
+      </c>
+      <c r="L90">
+        <v>3.901</v>
+      </c>
+      <c r="M90">
+        <v>0.8096058634252665</v>
+      </c>
+      <c r="N90">
+        <v>3.091394136574734</v>
+      </c>
+      <c r="O90">
+        <v>0.8655903582409256</v>
+      </c>
+      <c r="P90">
+        <v>2.225803778333808</v>
+      </c>
+      <c r="Q90">
+        <v>3.011803778333809</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4571015042532992</v>
+      </c>
+      <c r="T90">
+        <v>5.869332312019252</v>
+      </c>
+      <c r="U90">
+        <v>0.0226</v>
+      </c>
+      <c r="V90">
+        <v>0.28</v>
+      </c>
+      <c r="W90">
+        <v>0.016272</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>4.818393957148133</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.0690416037887543</v>
+      </c>
+      <c r="C91">
+        <v>11.90832937480707</v>
+      </c>
+      <c r="D91">
+        <v>45.26868026220084</v>
+      </c>
+      <c r="E91">
+        <v>35.42209146335583</v>
+      </c>
+      <c r="F91">
+        <v>36.23035088739377</v>
+      </c>
+      <c r="G91">
+        <v>2.87</v>
+      </c>
+      <c r="H91">
+        <v>39.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>4.687</v>
+      </c>
+      <c r="K91">
+        <v>0.786</v>
+      </c>
+      <c r="L91">
+        <v>3.901</v>
+      </c>
+      <c r="M91">
+        <v>0.8188059300550992</v>
+      </c>
+      <c r="N91">
+        <v>3.082194069944901</v>
+      </c>
+      <c r="O91">
+        <v>0.8630143395845723</v>
+      </c>
+      <c r="P91">
+        <v>2.219179730360329</v>
+      </c>
+      <c r="Q91">
+        <v>3.005179730360329</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4959956708068574</v>
+      </c>
+      <c r="T91">
+        <v>6.37911797895781</v>
+      </c>
+      <c r="U91">
+        <v>0.0226</v>
+      </c>
+      <c r="V91">
+        <v>0.28</v>
+      </c>
+      <c r="W91">
+        <v>0.016272</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>4.764254699202647</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.06891166706711271</v>
+      </c>
+      <c r="C92">
+        <v>11.59991981213431</v>
+      </c>
+      <c r="D92">
+        <v>45.36735329376846</v>
+      </c>
+      <c r="E92">
+        <v>35.82917405759621</v>
+      </c>
+      <c r="F92">
+        <v>36.63743348163415</v>
+      </c>
+      <c r="G92">
+        <v>2.87</v>
+      </c>
+      <c r="H92">
+        <v>39.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>4.687</v>
+      </c>
+      <c r="K92">
+        <v>0.786</v>
+      </c>
+      <c r="L92">
+        <v>3.901</v>
+      </c>
+      <c r="M92">
+        <v>0.8280059966849317</v>
+      </c>
+      <c r="N92">
+        <v>3.072994003315069</v>
+      </c>
+      <c r="O92">
+        <v>0.8604383209282193</v>
+      </c>
+      <c r="P92">
+        <v>2.212555682386849</v>
+      </c>
+      <c r="Q92">
+        <v>2.998555682386849</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5426686706711272</v>
+      </c>
+      <c r="T92">
+        <v>6.990860779284079</v>
+      </c>
+      <c r="U92">
+        <v>0.0226</v>
+      </c>
+      <c r="V92">
+        <v>0.28</v>
+      </c>
+      <c r="W92">
+        <v>0.016272</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>4.711318535878174</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.0687817303454711</v>
+      </c>
+      <c r="C93">
+        <v>11.29194134822625</v>
+      </c>
+      <c r="D93">
+        <v>45.46645742410077</v>
+      </c>
+      <c r="E93">
+        <v>36.23625665183658</v>
+      </c>
+      <c r="F93">
+        <v>37.04451607587453</v>
+      </c>
+      <c r="G93">
+        <v>2.87</v>
+      </c>
+      <c r="H93">
+        <v>39.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>4.687</v>
+      </c>
+      <c r="K93">
+        <v>0.786</v>
+      </c>
+      <c r="L93">
+        <v>3.901</v>
+      </c>
+      <c r="M93">
+        <v>0.8372060633147642</v>
+      </c>
+      <c r="N93">
+        <v>3.063793936685236</v>
+      </c>
+      <c r="O93">
+        <v>0.8578623022718662</v>
+      </c>
+      <c r="P93">
+        <v>2.20593163441337</v>
+      </c>
+      <c r="Q93">
+        <v>2.99193163441337</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5997134482830124</v>
+      </c>
+      <c r="T93">
+        <v>7.738546424127295</v>
+      </c>
+      <c r="U93">
+        <v>0.0226</v>
+      </c>
+      <c r="V93">
+        <v>0.28</v>
+      </c>
+      <c r="W93">
+        <v>0.016272</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>4.659545804714678</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.06865179362382952</v>
+      </c>
+      <c r="C94">
+        <v>10.98439681444934</v>
+      </c>
+      <c r="D94">
+        <v>45.56599548456425</v>
+      </c>
+      <c r="E94">
+        <v>36.64333924607696</v>
+      </c>
+      <c r="F94">
+        <v>37.4515986701149</v>
+      </c>
+      <c r="G94">
+        <v>2.87</v>
+      </c>
+      <c r="H94">
+        <v>39.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>4.687</v>
+      </c>
+      <c r="K94">
+        <v>0.786</v>
+      </c>
+      <c r="L94">
+        <v>3.901</v>
+      </c>
+      <c r="M94">
+        <v>0.8464061299445967</v>
+      </c>
+      <c r="N94">
+        <v>3.054593870055403</v>
+      </c>
+      <c r="O94">
+        <v>0.8552862836155131</v>
+      </c>
+      <c r="P94">
+        <v>2.199307586439891</v>
+      </c>
+      <c r="Q94">
+        <v>2.985307586439891</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6710194202978693</v>
+      </c>
+      <c r="T94">
+        <v>8.67315348018132</v>
+      </c>
+      <c r="U94">
+        <v>0.0226</v>
+      </c>
+      <c r="V94">
+        <v>0.28</v>
+      </c>
+      <c r="W94">
+        <v>0.016272</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>4.608898567706909</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.06852185690218791</v>
+      </c>
+      <c r="C95">
+        <v>10.67728906701896</v>
+      </c>
+      <c r="D95">
+        <v>45.66597033137425</v>
+      </c>
+      <c r="E95">
+        <v>37.05042184031735</v>
+      </c>
+      <c r="F95">
+        <v>37.85868126435529</v>
+      </c>
+      <c r="G95">
+        <v>2.87</v>
+      </c>
+      <c r="H95">
+        <v>39.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>4.687</v>
+      </c>
+      <c r="K95">
+        <v>0.786</v>
+      </c>
+      <c r="L95">
+        <v>3.901</v>
+      </c>
+      <c r="M95">
+        <v>0.8556061965744295</v>
+      </c>
+      <c r="N95">
+        <v>3.045393803425571</v>
+      </c>
+      <c r="O95">
+        <v>0.8527102649591599</v>
+      </c>
+      <c r="P95">
+        <v>2.192683538466411</v>
+      </c>
+      <c r="Q95">
+        <v>2.978683538466411</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.7626985271741137</v>
+      </c>
+      <c r="T95">
+        <v>9.87479112367935</v>
+      </c>
+      <c r="U95">
+        <v>0.0226</v>
+      </c>
+      <c r="V95">
+        <v>0.28</v>
+      </c>
+      <c r="W95">
+        <v>0.016272</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>4.55934051859178</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.06839192018054632</v>
+      </c>
+      <c r="C96">
+        <v>10.37062098727247</v>
+      </c>
+      <c r="D96">
+        <v>45.76638484586814</v>
+      </c>
+      <c r="E96">
+        <v>37.45750443455773</v>
+      </c>
+      <c r="F96">
+        <v>38.26576385859567</v>
+      </c>
+      <c r="G96">
+        <v>2.87</v>
+      </c>
+      <c r="H96">
+        <v>39.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>4.687</v>
+      </c>
+      <c r="K96">
+        <v>0.786</v>
+      </c>
+      <c r="L96">
+        <v>3.901</v>
+      </c>
+      <c r="M96">
+        <v>0.864806263204262</v>
+      </c>
+      <c r="N96">
+        <v>3.036193736795738</v>
+      </c>
+      <c r="O96">
+        <v>0.8501342463028068</v>
+      </c>
+      <c r="P96">
+        <v>2.186059490492931</v>
+      </c>
+      <c r="Q96">
+        <v>2.972059490492931</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.8849373363424394</v>
+      </c>
+      <c r="T96">
+        <v>11.47697464834339</v>
+      </c>
+      <c r="U96">
+        <v>0.0226</v>
+      </c>
+      <c r="V96">
+        <v>0.28</v>
+      </c>
+      <c r="W96">
+        <v>0.016272</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>4.51083689605357</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1309360908267188</v>
+      </c>
+      <c r="C97">
+        <v>-13.56912008196072</v>
+      </c>
+      <c r="D97">
+        <v>22.23372637087532</v>
+      </c>
+      <c r="E97">
+        <v>37.86458702879811</v>
+      </c>
+      <c r="F97">
+        <v>38.67284645283605</v>
+      </c>
+      <c r="G97">
+        <v>2.87</v>
+      </c>
+      <c r="H97">
+        <v>39.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>4.687</v>
+      </c>
+      <c r="K97">
+        <v>0.786</v>
+      </c>
+      <c r="L97">
+        <v>3.901</v>
+      </c>
+      <c r="M97">
+        <v>4.215340263359129</v>
+      </c>
+      <c r="N97">
+        <v>-0.3143402633591292</v>
+      </c>
+      <c r="O97">
+        <v>-0.08801527374055619</v>
+      </c>
+      <c r="P97">
+        <v>-0.2263249896185731</v>
+      </c>
+      <c r="Q97">
+        <v>0.559675010381427</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.084359843045046</v>
+      </c>
+      <c r="T97">
+        <v>14.09080455113755</v>
+      </c>
+      <c r="U97">
+        <v>0.109</v>
+      </c>
+      <c r="V97">
+        <v>0.2591202445729925</v>
+      </c>
+      <c r="W97">
+        <v>0.08075589334154382</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.9254294449035445</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1319330908267188</v>
+      </c>
+      <c r="C98">
+        <v>-14.15696159732365</v>
+      </c>
+      <c r="D98">
+        <v>22.05296744975277</v>
+      </c>
+      <c r="E98">
+        <v>38.27166962303848</v>
+      </c>
+      <c r="F98">
+        <v>39.07992904707642</v>
+      </c>
+      <c r="G98">
+        <v>2.87</v>
+      </c>
+      <c r="H98">
+        <v>39.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>4.687</v>
+      </c>
+      <c r="K98">
+        <v>0.786</v>
+      </c>
+      <c r="L98">
+        <v>3.901</v>
+      </c>
+      <c r="M98">
+        <v>4.25971226613133</v>
+      </c>
+      <c r="N98">
+        <v>-0.3587122661313296</v>
+      </c>
+      <c r="O98">
+        <v>-0.1004394345167723</v>
+      </c>
+      <c r="P98">
+        <v>-0.2582728316145573</v>
+      </c>
+      <c r="Q98">
+        <v>0.5277271683854428</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.353124803806304</v>
+      </c>
+      <c r="T98">
+        <v>17.6135056889219</v>
+      </c>
+      <c r="U98">
+        <v>0.109</v>
+      </c>
+      <c r="V98">
+        <v>0.2564210753586906</v>
+      </c>
+      <c r="W98">
+        <v>0.08105010278590272</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.9157895548524662</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.1329300908267188</v>
+      </c>
+      <c r="C99">
+        <v>-14.74188769552312</v>
+      </c>
+      <c r="D99">
+        <v>21.87512394579368</v>
+      </c>
+      <c r="E99">
+        <v>38.67875221727886</v>
+      </c>
+      <c r="F99">
+        <v>39.4870116413168</v>
+      </c>
+      <c r="G99">
+        <v>2.87</v>
+      </c>
+      <c r="H99">
+        <v>39.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>4.687</v>
+      </c>
+      <c r="K99">
+        <v>0.786</v>
+      </c>
+      <c r="L99">
+        <v>3.901</v>
+      </c>
+      <c r="M99">
+        <v>4.304084268903532</v>
+      </c>
+      <c r="N99">
+        <v>-0.4030842689035317</v>
+      </c>
+      <c r="O99">
+        <v>-0.1128635952929889</v>
+      </c>
+      <c r="P99">
+        <v>-0.2902206736105428</v>
+      </c>
+      <c r="Q99">
+        <v>0.4957793263894573</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.801066405075072</v>
+      </c>
+      <c r="T99">
+        <v>23.48467425189587</v>
+      </c>
+      <c r="U99">
+        <v>0.109</v>
+      </c>
+      <c r="V99">
+        <v>0.2537775591178792</v>
+      </c>
+      <c r="W99">
+        <v>0.08133824605615116</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.9063484254209973</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1339270908267188</v>
+      </c>
+      <c r="C100">
+        <v>-15.32396834539717</v>
+      </c>
+      <c r="D100">
+        <v>21.70012589016001</v>
+      </c>
+      <c r="E100">
+        <v>39.08583481151924</v>
+      </c>
+      <c r="F100">
+        <v>39.89409423555718</v>
+      </c>
+      <c r="G100">
+        <v>2.87</v>
+      </c>
+      <c r="H100">
+        <v>39.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>4.687</v>
+      </c>
+      <c r="K100">
+        <v>0.786</v>
+      </c>
+      <c r="L100">
+        <v>3.901</v>
+      </c>
+      <c r="M100">
+        <v>4.348456271675733</v>
+      </c>
+      <c r="N100">
+        <v>-0.4474562716757329</v>
+      </c>
+      <c r="O100">
+        <v>-0.1252877560692052</v>
+      </c>
+      <c r="P100">
+        <v>-0.3221685156065277</v>
+      </c>
+      <c r="Q100">
+        <v>0.4638314843934724</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.696949607612608</v>
+      </c>
+      <c r="T100">
+        <v>35.2270113778438</v>
+      </c>
+      <c r="U100">
+        <v>0.109</v>
+      </c>
+      <c r="V100">
+        <v>0.251187992188105</v>
+      </c>
+      <c r="W100">
+        <v>0.08162050885149655</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.8970999721003748</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1349240908267188</v>
+      </c>
+      <c r="C101">
+        <v>-15.90327129458787</v>
+      </c>
+      <c r="D101">
+        <v>21.52790553520969</v>
+      </c>
+      <c r="E101">
+        <v>39.49291740575962</v>
+      </c>
+      <c r="F101">
+        <v>40.30117682979756</v>
+      </c>
+      <c r="G101">
+        <v>2.87</v>
+      </c>
+      <c r="H101">
+        <v>39.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>4.687</v>
+      </c>
+      <c r="K101">
+        <v>0.786</v>
+      </c>
+      <c r="L101">
+        <v>3.901</v>
+      </c>
+      <c r="M101">
+        <v>4.392828274447934</v>
+      </c>
+      <c r="N101">
+        <v>-0.4918282744479341</v>
+      </c>
+      <c r="O101">
+        <v>-0.1377119168454216</v>
+      </c>
+      <c r="P101">
+        <v>-0.3541163576025125</v>
+      </c>
+      <c r="Q101">
+        <v>0.4318836423974875</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.384599215225215</v>
+      </c>
+      <c r="T101">
+        <v>70.4540227556876</v>
+      </c>
+      <c r="U101">
+        <v>0.109</v>
+      </c>
+      <c r="V101">
+        <v>0.2486507397417605</v>
+      </c>
+      <c r="W101">
+        <v>0.0818970693681481</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.8880383562205731</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
